--- a/rcads/data/xls/11_InstrumentComponents.xlsx
+++ b/rcads/data/xls/11_InstrumentComponents.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="_11_InstrumentComponents"/>
   </sheets>
   <definedNames>
-    <definedName name="_11_InstrumentComponents">'_11_InstrumentComponents'!$A$1:$E$473</definedName>
+    <definedName name="_11_InstrumentComponents">'_11_InstrumentComponents'!$A$1:$F$526</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -343,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E473"/>
+  <dimension ref="A1:F526"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -354,7 +354,7 @@
     <row outlineLevel="0" r="1">
       <c r="A1" s="0" t="inlineStr">
         <is>
-          <t>ElementID</t>
+          <t>InstrumentComponentID</t>
         </is>
       </c>
       <c r="B1" s="0" t="inlineStr">
@@ -364,7 +364,7 @@
       </c>
       <c r="C1" s="0" t="inlineStr">
         <is>
-          <t>ComponentAttribute</t>
+          <t>ComponentType</t>
         </is>
       </c>
       <c r="D1" s="0" t="inlineStr">
@@ -374,7 +374,12 @@
       </c>
       <c r="E1" s="0" t="inlineStr">
         <is>
-          <t>ComponentPosition</t>
+          <t>ComponentPosition_FHIR</t>
+        </is>
+      </c>
+      <c r="F1" s="0" t="inlineStr">
+        <is>
+          <t>Section</t>
         </is>
       </c>
     </row>
@@ -393,6 +398,12 @@
           <t>Name/ID:</t>
         </is>
       </c>
+      <c r="E2" s="0">
+        <v>1</v>
+      </c>
+      <c r="F2" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="3">
       <c r="A3" s="0">
@@ -408,6 +419,12 @@
         <is>
           <t>Date:</t>
         </is>
+      </c>
+      <c r="E3" s="0">
+        <v>2</v>
+      </c>
+      <c r="F3" s="0">
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="4">
@@ -425,6 +442,9 @@
           <t>Page</t>
         </is>
       </c>
+      <c r="F4" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="5">
       <c r="A5" s="0">
@@ -441,6 +461,12 @@
           <t>Please put a circle around the word that shows how often each of these things happens to you. There are no right or wrong answers.</t>
         </is>
       </c>
+      <c r="E5" s="0">
+        <v>3</v>
+      </c>
+      <c r="F5" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="6">
       <c r="A6" s="0">
@@ -457,6 +483,12 @@
           <t>Name/ID:</t>
         </is>
       </c>
+      <c r="E6" s="0">
+        <v>1</v>
+      </c>
+      <c r="F6" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="7">
       <c r="A7" s="0">
@@ -473,6 +505,12 @@
           <t>Date:</t>
         </is>
       </c>
+      <c r="E7" s="0">
+        <v>2</v>
+      </c>
+      <c r="F7" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="8">
       <c r="A8" s="0">
@@ -489,6 +527,9 @@
           <t>Page</t>
         </is>
       </c>
+      <c r="F8" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="9">
       <c r="A9" s="0">
@@ -505,6 +546,12 @@
           <t>Please put a circle around the word that shows how often each of these things happens for your child.</t>
         </is>
       </c>
+      <c r="E9" s="0">
+        <v>4</v>
+      </c>
+      <c r="F9" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="10">
       <c r="A10" s="0">
@@ -521,6 +568,12 @@
           <t>Relationship to Child:</t>
         </is>
       </c>
+      <c r="E10" s="0">
+        <v>3</v>
+      </c>
+      <c r="F10" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="11">
       <c r="A11" s="0">
@@ -537,6 +590,12 @@
           <t>Name/ID:</t>
         </is>
       </c>
+      <c r="E11" s="0">
+        <v>1</v>
+      </c>
+      <c r="F11" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="12">
       <c r="A12" s="0">
@@ -553,6 +612,9 @@
           <t>Date:</t>
         </is>
       </c>
+      <c r="E12" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="13">
       <c r="A13" s="0">
@@ -585,6 +647,9 @@
           <t>Please put a circle around the word that shows how often each of these things happens to you. There are no right or wrong answers.</t>
         </is>
       </c>
+      <c r="E14" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="15">
       <c r="A15" s="0">
@@ -601,6 +666,9 @@
           <t>Name/ID:</t>
         </is>
       </c>
+      <c r="E15" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="16">
       <c r="A16" s="0">
@@ -617,6 +685,9 @@
           <t>Date:</t>
         </is>
       </c>
+      <c r="E16" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="17">
       <c r="A17" s="0">
@@ -649,6 +720,9 @@
           <t>Please put a circle around the word that shows how often each of these things happens for your child.</t>
         </is>
       </c>
+      <c r="E18" s="0">
+        <v>4</v>
+      </c>
     </row>
     <row outlineLevel="0" r="19">
       <c r="A19" s="0">
@@ -665,6 +739,9 @@
           <t>Relationship to Child:</t>
         </is>
       </c>
+      <c r="E19" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="20">
       <c r="A20" s="0">
@@ -681,6 +758,9 @@
           <t>Name/ID:</t>
         </is>
       </c>
+      <c r="E20" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="21">
       <c r="A21" s="0">
@@ -697,6 +777,9 @@
           <t>Datum:</t>
         </is>
       </c>
+      <c r="E21" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="22">
       <c r="A22" s="0">
@@ -729,6 +812,9 @@
           <t>Kreise bitte für jeden Satz das Wort ein, das am besten beschreibt, wie häufig jede dieser Aussagen auf dich zutrifft. Es gibt keine richtigen oder falschen Antworten.</t>
         </is>
       </c>
+      <c r="E23" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="24">
       <c r="A24" s="0">
@@ -745,6 +831,9 @@
           <t>Name/ID:</t>
         </is>
       </c>
+      <c r="E24" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="25">
       <c r="A25" s="0">
@@ -761,6 +850,9 @@
           <t>Datum:</t>
         </is>
       </c>
+      <c r="E25" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="26">
       <c r="A26" s="0">
@@ -794,6 +886,9 @@
 Ihr Kind zutrifft. Es gibt keine richtigen oder falschen Antworten.</t>
         </is>
       </c>
+      <c r="E27" s="0">
+        <v>4</v>
+      </c>
     </row>
     <row outlineLevel="0" r="28">
       <c r="A28" s="0">
@@ -810,6 +905,9 @@
           <t>Beziehung zum Kind:</t>
         </is>
       </c>
+      <c r="E28" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="29">
       <c r="A29" s="0">
@@ -826,6 +924,9 @@
           <t>Name/ID:</t>
         </is>
       </c>
+      <c r="E29" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="30">
       <c r="A30" s="0">
@@ -842,6 +943,9 @@
           <t>Datum:</t>
         </is>
       </c>
+      <c r="E30" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="31">
       <c r="A31" s="0">
@@ -874,6 +978,9 @@
           <t>Kreise bitte für jeden Satz das Wort ein, das am besten beschreibt, wie häufig jede dieser Aussagen auf dich zutrifft. Es gibt keine richtigen oder falschen Antworten.</t>
         </is>
       </c>
+      <c r="E32" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="33">
       <c r="A33" s="0">
@@ -890,6 +997,9 @@
           <t>Name/ID:</t>
         </is>
       </c>
+      <c r="E33" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="34">
       <c r="A34" s="0">
@@ -906,6 +1016,9 @@
           <t>Datum:</t>
         </is>
       </c>
+      <c r="E34" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="35">
       <c r="A35" s="0">
@@ -939,6 +1052,9 @@
 Ihr Kind zutrifft. Es gibt keine richtigen oder falschen Antworten.</t>
         </is>
       </c>
+      <c r="E36" s="0">
+        <v>4</v>
+      </c>
     </row>
     <row outlineLevel="0" r="37">
       <c r="A37" s="0">
@@ -955,6 +1071,9 @@
           <t>Beziehung zum Kind:</t>
         </is>
       </c>
+      <c r="E37" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="38">
       <c r="A38" s="0">
@@ -971,6 +1090,9 @@
           <t>Navn/ID: </t>
         </is>
       </c>
+      <c r="E38" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="39">
       <c r="A39" s="0">
@@ -987,6 +1109,9 @@
           <t>Dato:</t>
         </is>
       </c>
+      <c r="E39" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="40">
       <c r="A40" s="0">
@@ -1019,6 +1144,9 @@
           <t>Sæt venligst en cirkel omkring det ord som viser, hvor ofte hver af disse ting sker for dig. Der er ingen rigtige eller forkerte svar.</t>
         </is>
       </c>
+      <c r="E41" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="42">
       <c r="A42" s="0">
@@ -1035,6 +1163,9 @@
           <t>Navn/ID: </t>
         </is>
       </c>
+      <c r="E42" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="43">
       <c r="A43" s="0">
@@ -1051,6 +1182,9 @@
           <t>Dato: </t>
         </is>
       </c>
+      <c r="E43" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="44">
       <c r="A44" s="0">
@@ -1083,6 +1217,9 @@
           <t>Sæt venligst en cirkel omkring det ord som viser, hvor ofte hver af disse ting sker for dit barn.</t>
         </is>
       </c>
+      <c r="E45" s="0">
+        <v>4</v>
+      </c>
     </row>
     <row outlineLevel="0" r="46">
       <c r="A46" s="0">
@@ -1099,6 +1236,9 @@
           <t>Mit forhold til barnet:</t>
         </is>
       </c>
+      <c r="E46" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="47">
       <c r="A47" s="0">
@@ -1115,6 +1255,9 @@
           <t>Navn/ID: </t>
         </is>
       </c>
+      <c r="E47" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="48">
       <c r="A48" s="0">
@@ -1131,6 +1274,9 @@
           <t>Dato: </t>
         </is>
       </c>
+      <c r="E48" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="49">
       <c r="A49" s="0">
@@ -1163,6 +1309,9 @@
           <t>Sæt venligst en cirkel omkring det ord som viser, hvor ofte hver af disse ting sker for dig. Der er ingen rigtige eller forkerte svar.</t>
         </is>
       </c>
+      <c r="E50" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="51">
       <c r="A51" s="0">
@@ -1179,6 +1328,9 @@
           <t>Navn/ID: </t>
         </is>
       </c>
+      <c r="E51" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="52">
       <c r="A52" s="0">
@@ -1195,6 +1347,9 @@
           <t>Dato: </t>
         </is>
       </c>
+      <c r="E52" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="53">
       <c r="A53" s="0">
@@ -1227,6 +1382,9 @@
           <t>Sæt venligst en cirkel omkring det ord som viser, hvor ofte hver af disse ting sker for dit barn.</t>
         </is>
       </c>
+      <c r="E54" s="0">
+        <v>4</v>
+      </c>
     </row>
     <row outlineLevel="0" r="55">
       <c r="A55" s="0">
@@ -1243,6 +1401,9 @@
           <t>Mit forhold til barnet:</t>
         </is>
       </c>
+      <c r="E55" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="56">
       <c r="A56" s="0">
@@ -1259,6 +1420,9 @@
           <t>Nom/ID:</t>
         </is>
       </c>
+      <c r="E56" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="57">
       <c r="A57" s="0">
@@ -1275,6 +1439,9 @@
           <t>Date:</t>
         </is>
       </c>
+      <c r="E57" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="58">
       <c r="A58" s="0">
@@ -1307,6 +1474,9 @@
           <t>Cochez le mot qui montre avec quelle fréquence chacune de ces choses vous arrivent. Il n’y a pas de bonnes ou de mauvaises réponses.</t>
         </is>
       </c>
+      <c r="E59" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="60">
       <c r="A60" s="0">
@@ -1323,6 +1493,9 @@
           <t>Nom/ID:</t>
         </is>
       </c>
+      <c r="E60" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="61">
       <c r="A61" s="0">
@@ -1339,6 +1512,9 @@
           <t>Date:</t>
         </is>
       </c>
+      <c r="E61" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="62">
       <c r="A62" s="0">
@@ -1371,6 +1547,9 @@
           <t>Cochez le mot qui montre avec quelle fréquence chacune de ces choses arrive pour votre enfant.</t>
         </is>
       </c>
+      <c r="E63" s="0">
+        <v>4</v>
+      </c>
     </row>
     <row outlineLevel="0" r="64">
       <c r="A64" s="0">
@@ -1387,6 +1566,9 @@
           <t>Relation avec l'enfant</t>
         </is>
       </c>
+      <c r="E64" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="65">
       <c r="A65" s="0">
@@ -1403,6 +1585,9 @@
           <t>Nom/ID:</t>
         </is>
       </c>
+      <c r="E65" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="66">
       <c r="A66" s="0">
@@ -1419,6 +1604,9 @@
           <t>Date:</t>
         </is>
       </c>
+      <c r="E66" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="67">
       <c r="A67" s="0">
@@ -1451,6 +1639,9 @@
           <t>Cochez le mot qui montre avec quelle fréquence chacune de ces choses vous arrivent. Il n’y a pas de bonnes ou de mauvaises réponses.</t>
         </is>
       </c>
+      <c r="E68" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="69">
       <c r="A69" s="0">
@@ -1467,6 +1658,9 @@
           <t>Nom/ID:</t>
         </is>
       </c>
+      <c r="E69" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="70">
       <c r="A70" s="0">
@@ -1483,6 +1677,9 @@
           <t>Date:</t>
         </is>
       </c>
+      <c r="E70" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="71">
       <c r="A71" s="0">
@@ -1515,6 +1712,9 @@
           <t>Cochez le mot qui montre avec quelle fréquence chacune de ces choses arrive pour votre enfant.</t>
         </is>
       </c>
+      <c r="E72" s="0">
+        <v>4</v>
+      </c>
     </row>
     <row outlineLevel="0" r="73">
       <c r="A73" s="0">
@@ -1531,6 +1731,9 @@
           <t>Relation avec l'enfant</t>
         </is>
       </c>
+      <c r="E73" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="74">
       <c r="A74" s="0">
@@ -1547,6 +1750,9 @@
           <t>Nombre:</t>
         </is>
       </c>
+      <c r="E74" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="75">
       <c r="A75" s="0">
@@ -1563,6 +1769,9 @@
           <t>Fecha:</t>
         </is>
       </c>
+      <c r="E75" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="76">
       <c r="A76" s="0">
@@ -1595,6 +1804,9 @@
           <t>Favor de encerrar con un círculo la palabra que demuestre que tanto te sucede cada una de las siguientes cosas. No hay respuestas correctas o incorrectas.</t>
         </is>
       </c>
+      <c r="E77" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="78">
       <c r="A78" s="0">
@@ -1611,6 +1823,9 @@
           <t>Nombre:</t>
         </is>
       </c>
+      <c r="E78" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="79">
       <c r="A79" s="0">
@@ -1627,6 +1842,9 @@
           <t>Fecha: </t>
         </is>
       </c>
+      <c r="E79" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="80">
       <c r="A80" s="0">
@@ -1659,6 +1877,9 @@
           <t>Favor de encerrar con un círculo la palabra que demuestre que tanto le suceden a su hijo/a cada una de las siguientes cosas.</t>
         </is>
       </c>
+      <c r="E81" s="0">
+        <v>4</v>
+      </c>
     </row>
     <row outlineLevel="0" r="82">
       <c r="A82" s="0">
@@ -1675,6 +1896,9 @@
           <t>Relación con el/la niño/a:</t>
         </is>
       </c>
+      <c r="E82" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="83">
       <c r="A83" s="0">
@@ -1691,6 +1915,9 @@
           <t>Nombre: </t>
         </is>
       </c>
+      <c r="E83" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="84">
       <c r="A84" s="0">
@@ -1707,6 +1934,9 @@
           <t>Fecha:</t>
         </is>
       </c>
+      <c r="E84" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="85">
       <c r="A85" s="0">
@@ -1739,6 +1969,9 @@
           <t>Favor de encerrar con un círculo la palabra que demuestre que tanto te sucede cada una de las siguientes cosas. No hay respuestas correctas o incorrectas.</t>
         </is>
       </c>
+      <c r="E86" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="87">
       <c r="A87" s="0">
@@ -1755,6 +1988,9 @@
           <t>Nombre:</t>
         </is>
       </c>
+      <c r="E87" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="88">
       <c r="A88" s="0">
@@ -1771,6 +2007,9 @@
           <t>Fecha:</t>
         </is>
       </c>
+      <c r="E88" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="89">
       <c r="A89" s="0">
@@ -1803,6 +2042,9 @@
           <t>Favor de encerrar con un círculo la palabra que demuestre que tanto le suceden a su hijo/a cada una de las siguientes cosas.</t>
         </is>
       </c>
+      <c r="E90" s="0">
+        <v>4</v>
+      </c>
     </row>
     <row outlineLevel="0" r="91">
       <c r="A91" s="0">
@@ -1819,6 +2061,9 @@
           <t>Relación con el/la niño/a:</t>
         </is>
       </c>
+      <c r="E91" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="92">
       <c r="A92" s="0">
@@ -1835,6 +2080,9 @@
           <t>االسم</t>
         </is>
       </c>
+      <c r="E92" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="93">
       <c r="A93" s="0">
@@ -1851,6 +2099,9 @@
           <t>التاريخ</t>
         </is>
       </c>
+      <c r="E93" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="94">
       <c r="A94" s="0">
@@ -1883,6 +2134,9 @@
           <t>رجاءا ضع دائرة حول الكلمة التي توضح عدد مرات حدوث كل من األشياء التالية لكعلما بأنهال توجد اجابات صحيحة او خاطئة.</t>
         </is>
       </c>
+      <c r="E95" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="96">
       <c r="A96" s="0">
@@ -1899,6 +2153,9 @@
           <t>االسم</t>
         </is>
       </c>
+      <c r="E96" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="97">
       <c r="A97" s="0">
@@ -1915,6 +2172,9 @@
           <t>التاريخ</t>
         </is>
       </c>
+      <c r="E97" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="98">
       <c r="A98" s="0">
@@ -1947,6 +2207,9 @@
           <t>رجاءا ضع دائرة حول الكلمة التي توضح عدد مرات حدوث كل من األشياء التالية لطفلك</t>
         </is>
       </c>
+      <c r="E99" s="0">
+        <v>4</v>
+      </c>
     </row>
     <row outlineLevel="0" r="100">
       <c r="A100" s="0">
@@ -1963,6 +2226,9 @@
           <t>العلاقة بالطفل</t>
         </is>
       </c>
+      <c r="E100" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="101">
       <c r="A101" s="0">
@@ -1979,6 +2245,9 @@
           <t>االسم</t>
         </is>
       </c>
+      <c r="E101" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="102">
       <c r="A102" s="0">
@@ -1995,6 +2264,9 @@
           <t>التاريخ</t>
         </is>
       </c>
+      <c r="E102" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="103">
       <c r="A103" s="0">
@@ -2027,6 +2299,9 @@
           <t>رجاءا ضع دائرة حول الكلمة التي توضح عدد مرات حدوث كل من األشياء التالية لكعلما بأنهال توجد اجابات صحيحة او خاطئة.</t>
         </is>
       </c>
+      <c r="E104" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="105">
       <c r="A105" s="0">
@@ -2043,6 +2318,9 @@
           <t>االسم</t>
         </is>
       </c>
+      <c r="E105" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="106">
       <c r="A106" s="0">
@@ -2059,6 +2337,9 @@
           <t>التاريخ</t>
         </is>
       </c>
+      <c r="E106" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="107">
       <c r="A107" s="0">
@@ -2091,6 +2372,9 @@
           <t>رجاءا ضع دائرة حول الكلمة التي توضح عدد مرات حدوث كل من األشياء التالية لطفلك</t>
         </is>
       </c>
+      <c r="E108" s="0">
+        <v>4</v>
+      </c>
     </row>
     <row outlineLevel="0" r="109">
       <c r="A109" s="0">
@@ -2107,6 +2391,9 @@
           <t>العلاقة بالطفل</t>
         </is>
       </c>
+      <c r="E109" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="110">
       <c r="A110" s="0">
@@ -2123,6 +2410,9 @@
           <t>姓名/编号:</t>
         </is>
       </c>
+      <c r="E110" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="111">
       <c r="A111" s="0">
@@ -2139,6 +2429,9 @@
           <t>日期:</t>
         </is>
       </c>
+      <c r="E111" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="112">
       <c r="A112" s="0">
@@ -2171,6 +2464,9 @@
           <t>以下是一系列有关青少年的描述。 请根据你的情况 , 用圆圈圈出你认为最合适的答案。</t>
         </is>
       </c>
+      <c r="E113" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="114">
       <c r="A114" s="0">
@@ -2187,6 +2483,9 @@
           <t>姓名/编号：</t>
         </is>
       </c>
+      <c r="E114" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="115">
       <c r="A115" s="0">
@@ -2203,6 +2502,9 @@
           <t>日期：</t>
         </is>
       </c>
+      <c r="E115" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="116">
       <c r="A116" s="0">
@@ -2235,6 +2537,9 @@
           <t>下面是一系列有关青少年的描述。请根据这些情况发生在您孩子身上的频率，圈出您认为最合适的答案。</t>
         </is>
       </c>
+      <c r="E117" s="0">
+        <v>4</v>
+      </c>
     </row>
     <row outlineLevel="0" r="118">
       <c r="A118" s="0">
@@ -2251,6 +2556,9 @@
           <t>和儿童的关系：</t>
         </is>
       </c>
+      <c r="E118" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="119">
       <c r="A119" s="0">
@@ -2267,6 +2575,9 @@
           <t>姓名：</t>
         </is>
       </c>
+      <c r="E119" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="120">
       <c r="A120" s="0">
@@ -2283,6 +2594,9 @@
           <t>⽇期</t>
         </is>
       </c>
+      <c r="E120" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="121">
       <c r="A121" s="0">
@@ -2315,6 +2629,9 @@
           <t>下⾯是⼀些关于⻘少年的描述。请按照你的情况选择这些描述有多经常发⽣在你⾝上，答案不分对错</t>
         </is>
       </c>
+      <c r="E122" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="123">
       <c r="A123" s="0">
@@ -2331,6 +2648,9 @@
           <t>姓名/编号：</t>
         </is>
       </c>
+      <c r="E123" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="124">
       <c r="A124" s="0">
@@ -2347,6 +2667,9 @@
           <t>日期：</t>
         </is>
       </c>
+      <c r="E124" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="125">
       <c r="A125" s="0">
@@ -2379,6 +2702,9 @@
           <t>下面是一系列有关青少年的描述。请根据这些情况发生在您孩子身上的频率，圈出您认为最合适的答案。</t>
         </is>
       </c>
+      <c r="E126" s="0">
+        <v>4</v>
+      </c>
     </row>
     <row outlineLevel="0" r="127">
       <c r="A127" s="0">
@@ -2395,6 +2721,9 @@
           <t>和儿童的关系：</t>
         </is>
       </c>
+      <c r="E127" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="128">
       <c r="A128" s="0">
@@ -2411,6 +2740,9 @@
           <t>Naam:</t>
         </is>
       </c>
+      <c r="E128" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="129">
       <c r="A129" s="0">
@@ -2427,6 +2759,9 @@
           <t>Datum:</t>
         </is>
       </c>
+      <c r="E129" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="130">
       <c r="A130" s="0">
@@ -2459,6 +2794,9 @@
           <t>Wat moet je doen? Lees elke zin en vul in hoe vaak jij deze dingen meemaakt: nooit, soms, vaak of altijd. Sla geen vragen over. Er zijn geen goede of foute antwoorden.</t>
         </is>
       </c>
+      <c r="E131" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="132">
       <c r="A132" s="0">
@@ -2475,6 +2813,9 @@
           <t>Naam:</t>
         </is>
       </c>
+      <c r="E132" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="133">
       <c r="A133" s="0">
@@ -2491,6 +2832,9 @@
           <t>Datum:</t>
         </is>
       </c>
+      <c r="E133" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="134">
       <c r="A134" s="0">
@@ -2523,6 +2867,9 @@
           <t>Wat moet u doen? Lees elke zin en vul in of het nooit, soms, vaak of altijd voor uw kind van toepassing is. Sla geen vragen over.</t>
         </is>
       </c>
+      <c r="E135" s="0">
+        <v>4</v>
+      </c>
     </row>
     <row outlineLevel="0" r="136">
       <c r="A136" s="0">
@@ -2539,6 +2886,9 @@
           <t>Relatie met het kind: moeder___; vader___; anders______</t>
         </is>
       </c>
+      <c r="E136" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="137">
       <c r="A137" s="0">
@@ -2555,6 +2905,9 @@
           <t>Naam:</t>
         </is>
       </c>
+      <c r="E137" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="138">
       <c r="A138" s="0">
@@ -2571,6 +2924,9 @@
           <t>Datum:</t>
         </is>
       </c>
+      <c r="E138" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="139">
       <c r="A139" s="0">
@@ -2603,6 +2959,9 @@
           <t>Wat moet je doen? Lees elke zin en vul in hoe vaak jij deze dingen meemaakt: nooit, soms, vaak of altijd. Sla geen vragen over. Er zijn geen goede of foute antwoorden.</t>
         </is>
       </c>
+      <c r="E140" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="141">
       <c r="A141" s="0">
@@ -2619,6 +2978,9 @@
           <t>Naam:</t>
         </is>
       </c>
+      <c r="E141" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="142">
       <c r="A142" s="0">
@@ -2635,6 +2997,9 @@
           <t>Datum:</t>
         </is>
       </c>
+      <c r="E142" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="143">
       <c r="A143" s="0">
@@ -2667,6 +3032,9 @@
           <t>Wat moet u doen? Lees elke zin en vul in of het nooit, soms, vaak of altijd voor uw kind van toepassing is. Sla geen vragen over.</t>
         </is>
       </c>
+      <c r="E144" s="0">
+        <v>4</v>
+      </c>
     </row>
     <row outlineLevel="0" r="145">
       <c r="A145" s="0">
@@ -2683,6 +3051,9 @@
           <t>Relatie met het kind: moeder___; vader___; anders______</t>
         </is>
       </c>
+      <c r="E145" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="146">
       <c r="A146" s="0">
@@ -2699,6 +3070,9 @@
           <t>Nimi/ID: </t>
         </is>
       </c>
+      <c r="E146" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="147">
       <c r="A147" s="0">
@@ -2715,6 +3089,9 @@
           <t>Kuupäev: </t>
         </is>
       </c>
+      <c r="E147" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="148">
       <c r="A148" s="0">
@@ -2748,6 +3125,9 @@
 vastuseid.</t>
         </is>
       </c>
+      <c r="E149" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="150">
       <c r="A150" s="0">
@@ -2764,6 +3144,9 @@
           <t>Nimi/ID: </t>
         </is>
       </c>
+      <c r="E150" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="151">
       <c r="A151" s="0">
@@ -2780,6 +3163,9 @@
           <t>Kuupäev: </t>
         </is>
       </c>
+      <c r="E151" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="152">
       <c r="A152" s="0">
@@ -2812,6 +3198,9 @@
           <t>Palun tõmba ring ümber sellele sõnale, mis näitab, kui tihti need asjad sinu lapsega juhtuvad.</t>
         </is>
       </c>
+      <c r="E153" s="0">
+        <v>4</v>
+      </c>
     </row>
     <row outlineLevel="0" r="154">
       <c r="A154" s="0">
@@ -2828,6 +3217,9 @@
           <t>Suhe lapsega</t>
         </is>
       </c>
+      <c r="E154" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="155">
       <c r="A155" s="0">
@@ -2844,6 +3236,9 @@
           <t>Nimi/ID: </t>
         </is>
       </c>
+      <c r="E155" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="156">
       <c r="A156" s="0">
@@ -2860,6 +3255,9 @@
           <t>Kuupäev: </t>
         </is>
       </c>
+      <c r="E156" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="157">
       <c r="A157" s="0">
@@ -2893,6 +3291,9 @@
 vastuseid.</t>
         </is>
       </c>
+      <c r="E158" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="159">
       <c r="A159" s="0">
@@ -2909,6 +3310,9 @@
           <t>Nimi/ID: </t>
         </is>
       </c>
+      <c r="E159" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="160">
       <c r="A160" s="0">
@@ -2925,6 +3329,9 @@
           <t>Kuupäev: </t>
         </is>
       </c>
+      <c r="E160" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="161">
       <c r="A161" s="0">
@@ -2957,6 +3364,9 @@
           <t>Palun tõmba ring ümber sellele sõnale, mis näitab, kui tihti need asjad sinu lapsega juhtuvad</t>
         </is>
       </c>
+      <c r="E162" s="0">
+        <v>4</v>
+      </c>
     </row>
     <row outlineLevel="0" r="163">
       <c r="A163" s="0">
@@ -2973,6 +3383,9 @@
           <t>Suhe lapsega</t>
         </is>
       </c>
+      <c r="E163" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="164">
       <c r="A164" s="0">
@@ -2989,6 +3402,9 @@
           <t>Nimi</t>
         </is>
       </c>
+      <c r="E164" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="165">
       <c r="A165" s="0">
@@ -3005,6 +3421,9 @@
           <t>Päivämäärä</t>
         </is>
       </c>
+      <c r="E165" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="166">
       <c r="A166" s="0">
@@ -3038,6 +3457,9 @@
 sinulle. Oikeita tai vääriä vastauksia ei ole.</t>
         </is>
       </c>
+      <c r="E167" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="168">
       <c r="A168" s="0">
@@ -3054,6 +3476,9 @@
           <t>Nimi</t>
         </is>
       </c>
+      <c r="E168" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="169">
       <c r="A169" s="0">
@@ -3070,6 +3495,9 @@
           <t>Päivämäärä</t>
         </is>
       </c>
+      <c r="E169" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="170">
       <c r="A170" s="0">
@@ -3103,6 +3531,9 @@
 lapsellesi.</t>
         </is>
       </c>
+      <c r="E171" s="0">
+        <v>4</v>
+      </c>
     </row>
     <row outlineLevel="0" r="172">
       <c r="A172" s="0">
@@ -3119,6 +3550,9 @@
           <t>Suhde lapseen</t>
         </is>
       </c>
+      <c r="E172" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="173">
       <c r="A173" s="0">
@@ -3135,6 +3569,9 @@
           <t>Nimi</t>
         </is>
       </c>
+      <c r="E173" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="174">
       <c r="A174" s="0">
@@ -3151,6 +3588,9 @@
           <t>Päivämäärä</t>
         </is>
       </c>
+      <c r="E174" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="175">
       <c r="A175" s="0">
@@ -3184,6 +3624,9 @@
 Oikeita tai vääriä vastauksia ei ole.</t>
         </is>
       </c>
+      <c r="E176" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="177">
       <c r="A177" s="0">
@@ -3200,6 +3643,9 @@
           <t>Nimi</t>
         </is>
       </c>
+      <c r="E177" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="178">
       <c r="A178" s="0">
@@ -3216,6 +3662,9 @@
           <t>Päivämäärä</t>
         </is>
       </c>
+      <c r="E178" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="179">
       <c r="A179" s="0">
@@ -3248,6 +3697,9 @@
           <t>Ympyröi jokaiselta riviltä vaihtoehto, joka kuvaa sitä, kuinka usein kutakin seuraavista asioista tapahtuu lapsellesi.</t>
         </is>
       </c>
+      <c r="E180" s="0">
+        <v>4</v>
+      </c>
     </row>
     <row outlineLevel="0" r="181">
       <c r="A181" s="0">
@@ -3264,6 +3716,9 @@
           <t>Suhde lapseen</t>
         </is>
       </c>
+      <c r="E181" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="182">
       <c r="A182" s="0">
@@ -3280,6 +3735,9 @@
           <t>Ονοματεπώνυμο/ID:</t>
         </is>
       </c>
+      <c r="E182" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="183">
       <c r="A183" s="0">
@@ -3296,6 +3754,9 @@
           <t>Ημερομηνία</t>
         </is>
       </c>
+      <c r="E183" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="184">
       <c r="A184" s="0">
@@ -3329,6 +3790,9 @@
 κατάστασης. Δεν υπάρχουν σωστές ή λάθος απαντήσεις.</t>
         </is>
       </c>
+      <c r="E185" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="186">
       <c r="A186" s="0">
@@ -3345,6 +3809,9 @@
           <t>Ονοματεπώνυμο/ID: </t>
         </is>
       </c>
+      <c r="E186" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="187">
       <c r="A187" s="0">
@@ -3361,6 +3828,9 @@
           <t>Ημερομηνία</t>
         </is>
       </c>
+      <c r="E187" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="188">
       <c r="A188" s="0">
@@ -3394,6 +3864,9 @@
 κατάστασης στο παιδί σας.</t>
         </is>
       </c>
+      <c r="E189" s="0">
+        <v>4</v>
+      </c>
     </row>
     <row outlineLevel="0" r="190">
       <c r="A190" s="0">
@@ -3410,6 +3883,9 @@
           <t>Σχέση με το παιδί-Translated</t>
         </is>
       </c>
+      <c r="E190" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="191">
       <c r="A191" s="0">
@@ -3426,6 +3902,9 @@
           <t>Ονοματεπώνυμο/ID:</t>
         </is>
       </c>
+      <c r="E191" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="192">
       <c r="A192" s="0">
@@ -3442,6 +3921,9 @@
           <t>Ημερομηνία</t>
         </is>
       </c>
+      <c r="E192" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="193">
       <c r="A193" s="0">
@@ -3475,6 +3957,9 @@
 κατάστασης. Δεν υπάρχουν σωστές ή λάθος απαντήσεις.</t>
         </is>
       </c>
+      <c r="E194" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="195">
       <c r="A195" s="0">
@@ -3491,6 +3976,9 @@
           <t>Ονοματεπώνυμο/ID:</t>
         </is>
       </c>
+      <c r="E195" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="196">
       <c r="A196" s="0">
@@ -3507,6 +3995,9 @@
           <t>Ημερομηνία</t>
         </is>
       </c>
+      <c r="E196" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="197">
       <c r="A197" s="0">
@@ -3540,6 +4031,9 @@
 κατάστασης στο παιδί σας.</t>
         </is>
       </c>
+      <c r="E198" s="0">
+        <v>4</v>
+      </c>
     </row>
     <row outlineLevel="0" r="199">
       <c r="A199" s="0">
@@ -3556,6 +4050,9 @@
           <t>Σχέση με το παιδί-Translated</t>
         </is>
       </c>
+      <c r="E199" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="200">
       <c r="A200" s="0">
@@ -3572,6 +4069,9 @@
           <t>Név/ID: </t>
         </is>
       </c>
+      <c r="E200" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="201">
       <c r="A201" s="0">
@@ -3588,6 +4088,9 @@
           <t>Dátum:</t>
         </is>
       </c>
+      <c r="E201" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="202">
       <c r="A202" s="0">
@@ -3620,6 +4123,9 @@
           <t>Kérjük, írja körbe azt a szót, amelyik azt mutatja, hogy milyen gyakran fordulnak elő Önnel ezek a dolgok. Nincsenek helyes vagy helytelen válaszok.</t>
         </is>
       </c>
+      <c r="E203" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="204">
       <c r="A204" s="0">
@@ -3636,6 +4142,9 @@
           <t>Név/ID: </t>
         </is>
       </c>
+      <c r="E204" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="205">
       <c r="A205" s="0">
@@ -3652,6 +4161,9 @@
           <t>Dátum:</t>
         </is>
       </c>
+      <c r="E205" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="206">
       <c r="A206" s="0">
@@ -3685,6 +4197,9 @@
 történnek meg veled. Nincs jó vagy rossz válasz</t>
         </is>
       </c>
+      <c r="E207" s="0">
+        <v>4</v>
+      </c>
     </row>
     <row outlineLevel="0" r="208">
       <c r="A208" s="0">
@@ -3701,6 +4216,9 @@
           <t>kapcsolat a gyermekkel-translated by DeepL</t>
         </is>
       </c>
+      <c r="E208" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="209">
       <c r="A209" s="0">
@@ -3717,6 +4235,9 @@
           <t>Név/ID: </t>
         </is>
       </c>
+      <c r="E209" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="210">
       <c r="A210" s="0">
@@ -3733,6 +4254,9 @@
           <t>Dátum:</t>
         </is>
       </c>
+      <c r="E210" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="211">
       <c r="A211" s="0">
@@ -3765,6 +4289,9 @@
           <t>Kérjük, írja körbe azt a szót, amelyik azt mutatja, hogy milyen gyakran fordulnak elő Önnel ezek a dolgok. Nincsenek helyes vagy helytelen válaszok.</t>
         </is>
       </c>
+      <c r="E212" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="213">
       <c r="A213" s="0">
@@ -3781,6 +4308,9 @@
           <t>Név/ID: </t>
         </is>
       </c>
+      <c r="E213" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="214">
       <c r="A214" s="0">
@@ -3797,6 +4327,9 @@
           <t>Dátum:</t>
         </is>
       </c>
+      <c r="E214" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="215">
       <c r="A215" s="0">
@@ -3830,6 +4363,9 @@
 történnek meg gyermekével. Nincs jó vagy rossz válasz.</t>
         </is>
       </c>
+      <c r="E216" s="0">
+        <v>4</v>
+      </c>
     </row>
     <row outlineLevel="0" r="217">
       <c r="A217" s="0">
@@ -3846,6 +4382,9 @@
           <t>kapcsolat a gyermekkel-translated by DeepL</t>
         </is>
       </c>
+      <c r="E217" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="218">
       <c r="A218" s="0">
@@ -3862,6 +4401,9 @@
           <t>Nafn</t>
         </is>
       </c>
+      <c r="E218" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="219">
       <c r="A219" s="0">
@@ -3878,6 +4420,9 @@
           <t>Dagsetning</t>
         </is>
       </c>
+      <c r="E219" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="220">
       <c r="A220" s="0">
@@ -3911,6 +4456,9 @@
 röng svör.</t>
         </is>
       </c>
+      <c r="E221" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="222">
       <c r="A222" s="0">
@@ -3927,6 +4475,9 @@
           <t>Nafn foreldris</t>
         </is>
       </c>
+      <c r="E222" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="223">
       <c r="A223" s="0">
@@ -3943,6 +4494,9 @@
           <t>Dagsetning</t>
         </is>
       </c>
+      <c r="E223" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="224">
       <c r="A224" s="0">
@@ -3976,6 +4530,9 @@
 eða röng svör</t>
         </is>
       </c>
+      <c r="E225" s="0">
+        <v>4</v>
+      </c>
     </row>
     <row outlineLevel="0" r="226">
       <c r="A226" s="0">
@@ -3992,6 +4549,9 @@
           <t>sambandi við þetta barn</t>
         </is>
       </c>
+      <c r="E226" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="227">
       <c r="A227" s="0">
@@ -4008,6 +4568,9 @@
           <t>Nafn</t>
         </is>
       </c>
+      <c r="E227" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="228">
       <c r="A228" s="0">
@@ -4024,6 +4587,9 @@
           <t>Dagsetning</t>
         </is>
       </c>
+      <c r="E228" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="229">
       <c r="A229" s="0">
@@ -4057,6 +4623,9 @@
 röng svör</t>
         </is>
       </c>
+      <c r="E230" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="231">
       <c r="A231" s="0">
@@ -4073,6 +4642,9 @@
           <t>Nafn foreldris</t>
         </is>
       </c>
+      <c r="E231" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="232">
       <c r="A232" s="0">
@@ -4089,6 +4661,9 @@
           <t>Dagsetning</t>
         </is>
       </c>
+      <c r="E232" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="233">
       <c r="A233" s="0">
@@ -4122,6 +4697,9 @@
 eða röng svör</t>
         </is>
       </c>
+      <c r="E234" s="0">
+        <v>4</v>
+      </c>
     </row>
     <row outlineLevel="0" r="235">
       <c r="A235" s="0">
@@ -4138,6 +4716,9 @@
           <t>sambandi við þetta barn</t>
         </is>
       </c>
+      <c r="E235" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="236">
       <c r="A236" s="0">
@@ -4154,6 +4735,9 @@
           <t>日ひにち</t>
         </is>
       </c>
+      <c r="E236" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="237">
       <c r="A237" s="0">
@@ -4170,6 +4754,9 @@
           <t>名前</t>
         </is>
       </c>
+      <c r="E237" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="238">
       <c r="A238" s="0">
@@ -4202,6 +4789,9 @@
           <t>次つぎのようなことは、あなたにどのくらいよく起おこりますか？当あてはまるもの（まったくない・ときどきある・よくある・いつもある）に○をつけてください。正ただしい答こたえや間違ま ち がった答こたえはありません。</t>
         </is>
       </c>
+      <c r="E239" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="240">
       <c r="A240" s="0">
@@ -4218,6 +4808,9 @@
           <t>名前</t>
         </is>
       </c>
+      <c r="E240" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="241">
       <c r="A241" s="0">
@@ -4234,6 +4827,9 @@
           <t>日付</t>
         </is>
       </c>
+      <c r="E241" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="242">
       <c r="A242" s="0">
@@ -4267,6 +4863,9 @@
 ときどきある・よくある・いつもある）に○をつけてください。"</t>
         </is>
       </c>
+      <c r="E243" s="0">
+        <v>4</v>
+      </c>
     </row>
     <row outlineLevel="0" r="244">
       <c r="A244" s="0">
@@ -4283,6 +4882,9 @@
           <t>この子との関係</t>
         </is>
       </c>
+      <c r="E244" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="245">
       <c r="A245" s="0">
@@ -4299,6 +4901,9 @@
           <t>日ひにち</t>
         </is>
       </c>
+      <c r="E245" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="246">
       <c r="A246" s="0">
@@ -4315,6 +4920,9 @@
           <t>名前</t>
         </is>
       </c>
+      <c r="E246" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="247">
       <c r="A247" s="0">
@@ -4347,6 +4955,9 @@
           <t>次つぎのようなことは、あなたにどのくらいよく起おこりますか？当あてはまるもの（まったくない・ときどきある・よくある・いつもある）に○をつけてください。正ただしい答こたえや間違ま ち がった答こたえはありません。</t>
         </is>
       </c>
+      <c r="E248" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="249">
       <c r="A249" s="0">
@@ -4363,6 +4974,9 @@
           <t>名前</t>
         </is>
       </c>
+      <c r="E249" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="250">
       <c r="A250" s="0">
@@ -4379,6 +4993,9 @@
           <t>日付</t>
         </is>
       </c>
+      <c r="E250" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="251">
       <c r="A251" s="0">
@@ -4412,6 +5029,9 @@
 ときどきある・よくある・いつもある）に○をつけてください。</t>
         </is>
       </c>
+      <c r="E252" s="0">
+        <v>4</v>
+      </c>
     </row>
     <row outlineLevel="0" r="253">
       <c r="A253" s="0">
@@ -4428,6 +5048,9 @@
           <t>この子との関係</t>
         </is>
       </c>
+      <c r="E253" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="254">
       <c r="A254" s="0">
@@ -4444,6 +5067,9 @@
           <t>이름</t>
         </is>
       </c>
+      <c r="E254" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="255">
       <c r="A255" s="0">
@@ -4460,6 +5086,9 @@
           <t>날짜</t>
         </is>
       </c>
+      <c r="E255" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="256">
       <c r="A256" s="0">
@@ -4493,6 +5122,9 @@
 선택지에 동그라미로 표시해서 나타내 주세요. 맞거나 틀리는 답은 없습니다.</t>
         </is>
       </c>
+      <c r="E257" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="258">
       <c r="A258" s="0">
@@ -4509,6 +5141,9 @@
           <t>이름</t>
         </is>
       </c>
+      <c r="E258" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="259">
       <c r="A259" s="0">
@@ -4525,6 +5160,9 @@
           <t>날짜</t>
         </is>
       </c>
+      <c r="E259" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="260">
       <c r="A260" s="0">
@@ -4558,6 +5196,9 @@
 오른쪽 선택지에 동그라미로 표시해서 나타내 주세요.</t>
         </is>
       </c>
+      <c r="E261" s="0">
+        <v>4</v>
+      </c>
     </row>
     <row outlineLevel="0" r="262">
       <c r="A262" s="0">
@@ -4574,6 +5215,9 @@
           <t>이 아이와의 관계</t>
         </is>
       </c>
+      <c r="E262" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="263">
       <c r="A263" s="0">
@@ -4590,6 +5234,9 @@
           <t>이름</t>
         </is>
       </c>
+      <c r="E263" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="264">
       <c r="A264" s="0">
@@ -4606,6 +5253,9 @@
           <t>날짜</t>
         </is>
       </c>
+      <c r="E264" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="265">
       <c r="A265" s="0">
@@ -4639,6 +5289,9 @@
 선택지에 동그라미로 표시해서 나타내 주세요. 맞거나 틀리는 답은 없습니다.</t>
         </is>
       </c>
+      <c r="E266" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="267">
       <c r="A267" s="0">
@@ -4655,6 +5308,9 @@
           <t>이름</t>
         </is>
       </c>
+      <c r="E267" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="268">
       <c r="A268" s="0">
@@ -4671,6 +5327,9 @@
           <t>날짜</t>
         </is>
       </c>
+      <c r="E268" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="269">
       <c r="A269" s="0">
@@ -4704,6 +5363,9 @@
 오른쪽 선택지에 동그라미로 표시해서 나타내 주세요.</t>
         </is>
       </c>
+      <c r="E270" s="0">
+        <v>4</v>
+      </c>
     </row>
     <row outlineLevel="0" r="271">
       <c r="A271" s="0">
@@ -4720,6 +5382,9 @@
           <t>이 아이와의 관계</t>
         </is>
       </c>
+      <c r="E271" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="272">
       <c r="A272" s="0">
@@ -4736,6 +5401,9 @@
           <t>Vardas/ID: </t>
         </is>
       </c>
+      <c r="E272" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="273">
       <c r="A273" s="0">
@@ -4752,6 +5420,9 @@
           <t>Data: </t>
         </is>
       </c>
+      <c r="E273" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="274">
       <c r="A274" s="0">
@@ -4785,6 +5456,9 @@
 išvardintų dalykų. Nėra teisingų ar klaidingų atsakymų.</t>
         </is>
       </c>
+      <c r="E275" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="276">
       <c r="A276" s="0">
@@ -4801,6 +5475,9 @@
           <t>Vardas/ID: </t>
         </is>
       </c>
+      <c r="E276" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="277">
       <c r="A277" s="0">
@@ -4817,6 +5494,9 @@
           <t>Data: </t>
         </is>
       </c>
+      <c r="E277" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="278">
       <c r="A278" s="0">
@@ -4849,6 +5529,9 @@
           <t>Pasirinkite ir apibraukite žodį, geriausiai apibūdinantį, kaip dažnai jūsų vaikui atsitinka kiekvienas iš šių dalykų.</t>
         </is>
       </c>
+      <c r="E279" s="0">
+        <v>4</v>
+      </c>
     </row>
     <row outlineLevel="0" r="280">
       <c r="A280" s="0">
@@ -4865,6 +5548,9 @@
           <t>Santykiai su šiuo vaiku</t>
         </is>
       </c>
+      <c r="E280" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="281">
       <c r="A281" s="0">
@@ -4881,6 +5567,9 @@
           <t>Vardas/ID: </t>
         </is>
       </c>
+      <c r="E281" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="282">
       <c r="A282" s="0">
@@ -4897,6 +5586,9 @@
           <t>Data: </t>
         </is>
       </c>
+      <c r="E282" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="283">
       <c r="A283" s="0">
@@ -4930,6 +5622,9 @@
 išvardintų dalykų. Nėra teisingų ar klaidingų atsakymų.</t>
         </is>
       </c>
+      <c r="E284" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="285">
       <c r="A285" s="0">
@@ -4946,6 +5641,9 @@
           <t>Vardas/ID: </t>
         </is>
       </c>
+      <c r="E285" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="286">
       <c r="A286" s="0">
@@ -4962,6 +5660,9 @@
           <t>Data: </t>
         </is>
       </c>
+      <c r="E286" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="287">
       <c r="A287" s="0">
@@ -4994,6 +5695,9 @@
           <t>Pasirinkite ir apibraukite žodį, geriausiai apibūdinantį, kaip dažnai jūsų vaikui atsitinka kiekvienas iš šių dalykų.</t>
         </is>
       </c>
+      <c r="E288" s="0">
+        <v>4</v>
+      </c>
     </row>
     <row outlineLevel="0" r="289">
       <c r="A289" s="0">
@@ -5010,6 +5714,9 @@
           <t>Santykiai su šiuo vaiku</t>
         </is>
       </c>
+      <c r="E289" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="290">
       <c r="A290" s="0">
@@ -5026,6 +5733,9 @@
           <t>Navnet ditt:</t>
         </is>
       </c>
+      <c r="E290" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="291">
       <c r="A291" s="0">
@@ -5042,6 +5752,9 @@
           <t>Dato: </t>
         </is>
       </c>
+      <c r="E291" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="292">
       <c r="A292" s="0">
@@ -5074,6 +5787,9 @@
           <t>Lag en sirkel rundt ordet som viser hvor ofte hver av disse skjer med deg. Det er ingen riktige eller gale svar.</t>
         </is>
       </c>
+      <c r="E293" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="294">
       <c r="A294" s="0">
@@ -5090,6 +5806,9 @@
           <t>Barnets navn:</t>
         </is>
       </c>
+      <c r="E294" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="295">
       <c r="A295" s="0">
@@ -5106,6 +5825,9 @@
           <t>Dato: </t>
         </is>
       </c>
+      <c r="E295" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="296">
       <c r="A296" s="0">
@@ -5139,6 +5861,9 @@
 gale svar.</t>
         </is>
       </c>
+      <c r="E297" s="0">
+        <v>4</v>
+      </c>
     </row>
     <row outlineLevel="0" r="298">
       <c r="A298" s="0">
@@ -5155,6 +5880,9 @@
           <t>Relasjon til barnet: </t>
         </is>
       </c>
+      <c r="E298" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="299">
       <c r="A299" s="0">
@@ -5171,6 +5899,9 @@
           <t>Navnet ditt:</t>
         </is>
       </c>
+      <c r="E299" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="300">
       <c r="A300" s="0">
@@ -5187,6 +5918,9 @@
           <t>Dato: </t>
         </is>
       </c>
+      <c r="E300" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="301">
       <c r="A301" s="0">
@@ -5219,6 +5953,9 @@
           <t>Lag en sirkel rundt ordet som viser hvor ofte hver av disse skjer med deg. Det er ingen riktige eller gale svar.</t>
         </is>
       </c>
+      <c r="E302" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="303">
       <c r="A303" s="0">
@@ -5235,6 +5972,9 @@
           <t>Barnets navn:</t>
         </is>
       </c>
+      <c r="E303" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="304">
       <c r="A304" s="0">
@@ -5251,6 +5991,9 @@
           <t>Dato: </t>
         </is>
       </c>
+      <c r="E304" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="305">
       <c r="A305" s="0">
@@ -5284,6 +6027,9 @@
 gale svar.</t>
         </is>
       </c>
+      <c r="E306" s="0">
+        <v>4</v>
+      </c>
     </row>
     <row outlineLevel="0" r="307">
       <c r="A307" s="0">
@@ -5300,6 +6046,9 @@
           <t>Relasjon til barnet: </t>
         </is>
       </c>
+      <c r="E307" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="308">
       <c r="A308" s="0">
@@ -5316,6 +6065,9 @@
           <t>نامو</t>
         </is>
       </c>
+      <c r="E308" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="309">
       <c r="A309" s="0">
@@ -5332,6 +6084,9 @@
           <t>تاریخ</t>
         </is>
       </c>
+      <c r="E309" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="310">
       <c r="A310" s="0">
@@ -5364,6 +6119,9 @@
           <t>نامو نامخانوادگی</t>
         </is>
       </c>
+      <c r="E311" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="312">
       <c r="A312" s="0">
@@ -5380,6 +6138,9 @@
           <t>تاریخ</t>
         </is>
       </c>
+      <c r="E312" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="313">
       <c r="A313" s="0">
@@ -5412,6 +6173,9 @@
           <t>لطفا ً هر جمله را به دقت خوانده و سپس خانه ای را عالمت بزنید که در مورد فرزند شما صحیح تر می باشد.</t>
         </is>
       </c>
+      <c r="E314" s="0">
+        <v>4</v>
+      </c>
     </row>
     <row outlineLevel="0" r="315">
       <c r="A315" s="0">
@@ -5428,6 +6192,9 @@
           <t>نسبت با کودک</t>
         </is>
       </c>
+      <c r="E315" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="316">
       <c r="A316" s="0">
@@ -5444,6 +6211,9 @@
           <t>نامو</t>
         </is>
       </c>
+      <c r="E316" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="317">
       <c r="A317" s="0">
@@ -5460,6 +6230,9 @@
           <t>تاریخ</t>
         </is>
       </c>
+      <c r="E317" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="318">
       <c r="A318" s="0">
@@ -5492,6 +6265,9 @@
           <t>نامو نامخانوادگی</t>
         </is>
       </c>
+      <c r="E319" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="320">
       <c r="A320" s="0">
@@ -5508,6 +6284,9 @@
           <t>تاریخ</t>
         </is>
       </c>
+      <c r="E320" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="321">
       <c r="A321" s="0">
@@ -5540,6 +6319,9 @@
           <t>لطفا ً هر جمله را به دقت خوانده و سپس خانه ای را عالمت بزنید که در مورد فرزند شما صحیح تر می باشد.</t>
         </is>
       </c>
+      <c r="E322" s="0">
+        <v>4</v>
+      </c>
     </row>
     <row outlineLevel="0" r="323">
       <c r="A323" s="0">
@@ -5556,6 +6338,9 @@
           <t>نسبت با کودک</t>
         </is>
       </c>
+      <c r="E323" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="324">
       <c r="A324" s="0">
@@ -5572,6 +6357,9 @@
           <t>Imię i nazwisko/Kod: </t>
         </is>
       </c>
+      <c r="E324" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="325">
       <c r="A325" s="0">
@@ -5588,6 +6376,9 @@
           <t>Data: </t>
         </is>
       </c>
+      <c r="E325" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="326">
       <c r="A326" s="0">
@@ -5621,6 +6412,9 @@
 złych odpowiedzi</t>
         </is>
       </c>
+      <c r="E327" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="328">
       <c r="A328" s="0">
@@ -5637,6 +6431,9 @@
           <t>Imię dziecka:</t>
         </is>
       </c>
+      <c r="E328" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="329">
       <c r="A329" s="0">
@@ -5653,6 +6450,9 @@
           <t>Data: </t>
         </is>
       </c>
+      <c r="E329" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="330">
       <c r="A330" s="0">
@@ -5685,6 +6485,9 @@
           <t>Proszę zaznaczyć w kółko odpowiedź, która najbardziej pasuje do Pana/Pani dziecka.</t>
         </is>
       </c>
+      <c r="E331" s="0">
+        <v>4</v>
+      </c>
     </row>
     <row outlineLevel="0" r="332">
       <c r="A332" s="0">
@@ -5701,6 +6504,9 @@
           <t>Stopień pokrewieństwa z dzieckiem: </t>
         </is>
       </c>
+      <c r="E332" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="333">
       <c r="A333" s="0">
@@ -5717,6 +6523,9 @@
           <t>Imię i nazwisko/Kod: </t>
         </is>
       </c>
+      <c r="E333" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="334">
       <c r="A334" s="0">
@@ -5733,6 +6542,9 @@
           <t>Data: </t>
         </is>
       </c>
+      <c r="E334" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="335">
       <c r="A335" s="0">
@@ -5766,6 +6578,9 @@
 złych odpowiedzi.</t>
         </is>
       </c>
+      <c r="E336" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="337">
       <c r="A337" s="0">
@@ -5782,6 +6597,9 @@
           <t>Imię dziecka:</t>
         </is>
       </c>
+      <c r="E337" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="338">
       <c r="A338" s="0">
@@ -5798,6 +6616,9 @@
           <t>Data: </t>
         </is>
       </c>
+      <c r="E338" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="339">
       <c r="A339" s="0">
@@ -5830,6 +6651,9 @@
           <t>Proszę zaznaczyć w kółko odpowiedź, która najbardziej pasuje do Pana/Pani dziecka.</t>
         </is>
       </c>
+      <c r="E340" s="0">
+        <v>4</v>
+      </c>
     </row>
     <row outlineLevel="0" r="341">
       <c r="A341" s="0">
@@ -5846,6 +6670,9 @@
           <t>Stopień pokrewieństwa z dzieckiem: </t>
         </is>
       </c>
+      <c r="E341" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="342">
       <c r="A342" s="0">
@@ -5862,6 +6689,9 @@
           <t>Nome: </t>
         </is>
       </c>
+      <c r="E342" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="343">
       <c r="A343" s="0">
@@ -5878,6 +6708,9 @@
           <t>Data: </t>
         </is>
       </c>
+      <c r="E343" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="344">
       <c r="A344" s="0">
@@ -5911,6 +6744,9 @@
 Não existem respostas certas ou erradas.</t>
         </is>
       </c>
+      <c r="E345" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="346">
       <c r="A346" s="0">
@@ -5927,6 +6763,9 @@
           <t>Nome da criança:</t>
         </is>
       </c>
+      <c r="E346" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="347">
       <c r="A347" s="0">
@@ -5943,6 +6782,9 @@
           <t>Data: </t>
         </is>
       </c>
+      <c r="E347" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="348">
       <c r="A348" s="0">
@@ -5975,6 +6817,9 @@
           <t>Relacionamento com criança:</t>
         </is>
       </c>
+      <c r="E349" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="350">
       <c r="A350" s="0">
@@ -5991,6 +6836,9 @@
           <t>Nome: </t>
         </is>
       </c>
+      <c r="E350" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="351">
       <c r="A351" s="0">
@@ -6007,6 +6855,9 @@
           <t>Data: </t>
         </is>
       </c>
+      <c r="E351" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="352">
       <c r="A352" s="0">
@@ -6040,6 +6891,9 @@
 Não existem respostas certas ou erradas.</t>
         </is>
       </c>
+      <c r="E353" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="354">
       <c r="A354" s="0">
@@ -6056,6 +6910,9 @@
           <t>Nome da criança:</t>
         </is>
       </c>
+      <c r="E354" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="355">
       <c r="A355" s="0">
@@ -6072,6 +6929,9 @@
           <t>Data: </t>
         </is>
       </c>
+      <c r="E355" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="356">
       <c r="A356" s="0">
@@ -6104,6 +6964,9 @@
           <t>Relacionamento com criança:</t>
         </is>
       </c>
+      <c r="E357" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="358">
       <c r="A358" s="0">
@@ -6120,6 +6983,9 @@
           <t>Ime in priimek:</t>
         </is>
       </c>
+      <c r="E358" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="359">
       <c r="A359" s="0">
@@ -6136,6 +7002,9 @@
           <t>Datum:</t>
         </is>
       </c>
+      <c r="E359" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="360">
       <c r="A360" s="0">
@@ -6169,6 +7038,9 @@
 napačnih odgovorov.</t>
         </is>
       </c>
+      <c r="E361" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="362">
       <c r="A362" s="0">
@@ -6185,6 +7057,9 @@
           <t>Ime in priimek otroka:</t>
         </is>
       </c>
+      <c r="E362" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="363">
       <c r="A363" s="0">
@@ -6201,6 +7076,9 @@
           <t>Datum:</t>
         </is>
       </c>
+      <c r="E363" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="364">
       <c r="A364" s="0">
@@ -6234,6 +7112,9 @@
 pravilnih oziroma napačnih odgovorov.</t>
         </is>
       </c>
+      <c r="E365" s="0">
+        <v>4</v>
+      </c>
     </row>
     <row outlineLevel="0" r="366">
       <c r="A366" s="0">
@@ -6250,6 +7131,9 @@
           <t>Odnos do otroka:</t>
         </is>
       </c>
+      <c r="E366" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="367">
       <c r="A367" s="0">
@@ -6266,6 +7150,9 @@
           <t>Ime in priimek:</t>
         </is>
       </c>
+      <c r="E367" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="368">
       <c r="A368" s="0">
@@ -6282,6 +7169,9 @@
           <t>Datum:</t>
         </is>
       </c>
+      <c r="E368" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="369">
       <c r="A369" s="0">
@@ -6315,6 +7205,9 @@
 napačnih odgovorov.</t>
         </is>
       </c>
+      <c r="E370" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="371">
       <c r="A371" s="0">
@@ -6331,6 +7224,9 @@
           <t>Ime in priimek otroka:</t>
         </is>
       </c>
+      <c r="E371" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="372">
       <c r="A372" s="0">
@@ -6347,6 +7243,9 @@
           <t>Datum:</t>
         </is>
       </c>
+      <c r="E372" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="373">
       <c r="A373" s="0">
@@ -6380,6 +7279,9 @@
 pravilnih oziroma napačnih odgovorov.</t>
         </is>
       </c>
+      <c r="E374" s="0">
+        <v>4</v>
+      </c>
     </row>
     <row outlineLevel="0" r="375">
       <c r="A375" s="0">
@@ -6396,6 +7298,9 @@
           <t>Odnos do otroka:</t>
         </is>
       </c>
+      <c r="E375" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="376">
       <c r="A376" s="0">
@@ -6412,6 +7317,9 @@
           <t>Namn:</t>
         </is>
       </c>
+      <c r="E376" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="377">
       <c r="A377" s="0">
@@ -6428,6 +7336,9 @@
           <t>Datum:</t>
         </is>
       </c>
+      <c r="E377" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="378">
       <c r="A378" s="0">
@@ -6461,6 +7372,9 @@
 finns inga rätt eller fel svar.</t>
         </is>
       </c>
+      <c r="E379" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="380">
       <c r="A380" s="0">
@@ -6477,6 +7391,9 @@
           <t>Namn:</t>
         </is>
       </c>
+      <c r="E380" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="381">
       <c r="A381" s="0">
@@ -6493,6 +7410,9 @@
           <t>Datum:</t>
         </is>
       </c>
+      <c r="E381" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="382">
       <c r="A382" s="0">
@@ -6526,6 +7446,9 @@
 Det finns inga rätt eller fel svar.</t>
         </is>
       </c>
+      <c r="E383" s="0">
+        <v>4</v>
+      </c>
     </row>
     <row outlineLevel="0" r="384">
       <c r="A384" s="0">
@@ -6542,6 +7465,9 @@
           <t>Relation till barnet:</t>
         </is>
       </c>
+      <c r="E384" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="385">
       <c r="A385" s="0">
@@ -6558,6 +7484,9 @@
           <t>Namn:</t>
         </is>
       </c>
+      <c r="E385" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="386">
       <c r="A386" s="0">
@@ -6574,6 +7503,9 @@
           <t>Datum:</t>
         </is>
       </c>
+      <c r="E386" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="387">
       <c r="A387" s="0">
@@ -6607,6 +7539,9 @@
 rätt eller fel svar.</t>
         </is>
       </c>
+      <c r="E388" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="389">
       <c r="A389" s="0">
@@ -6623,6 +7558,9 @@
           <t>Namn:</t>
         </is>
       </c>
+      <c r="E389" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="390">
       <c r="A390" s="0">
@@ -6639,6 +7577,9 @@
           <t>Datum:</t>
         </is>
       </c>
+      <c r="E390" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="391">
       <c r="A391" s="0">
@@ -6672,6 +7613,9 @@
 inga rätt eller fel svar.</t>
         </is>
       </c>
+      <c r="E392" s="0">
+        <v>4</v>
+      </c>
     </row>
     <row outlineLevel="0" r="393">
       <c r="A393" s="0">
@@ -6688,6 +7632,9 @@
           <t>Relation till barnet:</t>
         </is>
       </c>
+      <c r="E393" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="394">
       <c r="A394" s="0">
@@ -6704,6 +7651,9 @@
           <t>Adı ve Soyadı:</t>
         </is>
       </c>
+      <c r="E394" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="395">
       <c r="A395" s="0">
@@ -6720,6 +7670,9 @@
           <t>Tarih:</t>
         </is>
       </c>
+      <c r="E395" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="396">
       <c r="A396" s="0">
@@ -6754,6 +7707,9 @@
 doğru ise 1’i, Sık Sık doğru ise 2’yi, Her Zaman doğru ise </t>
         </is>
       </c>
+      <c r="E397" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="398">
       <c r="A398" s="0">
@@ -6770,6 +7726,9 @@
           <t>Adı ve Soyadı:</t>
         </is>
       </c>
+      <c r="E398" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="399">
       <c r="A399" s="0">
@@ -6786,6 +7745,9 @@
           <t>Tarih:</t>
         </is>
       </c>
+      <c r="E399" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="400">
       <c r="A400" s="0">
@@ -6820,6 +7782,9 @@
 Her Zaman doğru ise </t>
         </is>
       </c>
+      <c r="E401" s="0">
+        <v>4</v>
+      </c>
     </row>
     <row outlineLevel="0" r="402">
       <c r="A402" s="0">
@@ -6836,6 +7801,9 @@
           <t>çocukla ilişki:</t>
         </is>
       </c>
+      <c r="E402" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="403">
       <c r="A403" s="0">
@@ -6852,6 +7820,9 @@
           <t>Adı ve Soyadı:</t>
         </is>
       </c>
+      <c r="E403" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="404">
       <c r="A404" s="0">
@@ -6868,6 +7839,9 @@
           <t>Tarih:</t>
         </is>
       </c>
+      <c r="E404" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="405">
       <c r="A405" s="0">
@@ -6902,6 +7876,9 @@
 doğru ise 1’i, Sık Sık doğru ise 2’yi, Her Zaman doğru ise </t>
         </is>
       </c>
+      <c r="E406" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="407">
       <c r="A407" s="0">
@@ -6918,6 +7895,9 @@
           <t>Adı ve Soyadı:</t>
         </is>
       </c>
+      <c r="E407" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="408">
       <c r="A408" s="0">
@@ -6934,6 +7914,9 @@
           <t>Tarih:</t>
         </is>
       </c>
+      <c r="E408" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="409">
       <c r="A409" s="0">
@@ -6968,6 +7951,9 @@
 Her Zaman doğru ise </t>
         </is>
       </c>
+      <c r="E410" s="0">
+        <v>4</v>
+      </c>
     </row>
     <row outlineLevel="0" r="411">
       <c r="A411" s="0">
@@ -6984,6 +7970,9 @@
           <t>çocukla ilişki:</t>
         </is>
       </c>
+      <c r="E411" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="412">
       <c r="A412" s="0">
@@ -7000,6 +7989,9 @@
           <t>میرا  نام: </t>
         </is>
       </c>
+      <c r="E412" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="413">
       <c r="A413" s="0">
@@ -7016,6 +8008,9 @@
           <t>  تاریخ                                  :   وقت: </t>
         </is>
       </c>
+      <c r="E413" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="414">
       <c r="A414" s="0">
@@ -7048,6 +8043,9 @@
           <t>                  		کوئی جواب صحیح یا غلط  نہیں ہے براے  مہربانی  اس لفظ کے گرد دائرہ لگائیں جس سےمعلوم ہوکہ یہ چیزیں آپ کے ساتھ کتنی بار واقعہ ہوتی ہیں 	 </t>
         </is>
       </c>
+      <c r="E415" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="416">
       <c r="A416" s="0">
@@ -7064,6 +8062,9 @@
           <t>بچے  کا  نام: </t>
         </is>
       </c>
+      <c r="E416" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="417">
       <c r="A417" s="0">
@@ -7080,6 +8081,9 @@
           <t>  تاریخ                                  :   وقت: </t>
         </is>
       </c>
+      <c r="E417" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="418">
       <c r="A418" s="0">
@@ -7112,6 +8116,9 @@
           <t>براے  مہربانی  اس لفظ کے گرد دائرہ لگائیں جس سےمعلوم ہوکہ یہ چیزیں آپ کے ساتھ کتنی بار واقعہ ہوتی ہیں                   		کوئی جواب صحیح یا غلط  نہیں ہے  </t>
         </is>
       </c>
+      <c r="E419" s="0">
+        <v>4</v>
+      </c>
     </row>
     <row outlineLevel="0" r="420">
       <c r="A420" s="0">
@@ -7128,6 +8135,9 @@
           <t>بچے سے رشتہ: </t>
         </is>
       </c>
+      <c r="E420" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="421">
       <c r="A421" s="0">
@@ -7144,6 +8154,9 @@
           <t>میرا  نام: </t>
         </is>
       </c>
+      <c r="E421" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="422">
       <c r="A422" s="0">
@@ -7160,6 +8173,9 @@
           <t>  تاریخ                                  :   وقت: </t>
         </is>
       </c>
+      <c r="E422" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="423">
       <c r="A423" s="0">
@@ -7192,6 +8208,9 @@
           <t>                  		کوئی جواب صحیح یا غلط  نہیں ہے براے  مہربانی  اس لفظ کے گرد دائرہ لگائیں جس سےمعلوم ہوکہ یہ چیزیں آپ کے ساتھ کتنی بار واقعہ ہوتی ہیں 	 </t>
         </is>
       </c>
+      <c r="E424" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="425">
       <c r="A425" s="0">
@@ -7208,6 +8227,9 @@
           <t>بچے  کا  نام: </t>
         </is>
       </c>
+      <c r="E425" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="426">
       <c r="A426" s="0">
@@ -7224,6 +8246,9 @@
           <t>  تاریخ                                  :   وقت: </t>
         </is>
       </c>
+      <c r="E426" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="427">
       <c r="A427" s="0">
@@ -7256,6 +8281,9 @@
           <t>براے  مہربانی  اس لفظ کے گرد دائرہ لگائیں جس سےمعلوم ہوکہ یہ چیزیں آپ کے ساتھ کتنی بار واقعہ ہوتی ہیں 	                   		کوئی جواب صحیح یا غلط  نہیں ہے </t>
         </is>
       </c>
+      <c r="E428" s="0">
+        <v>4</v>
+      </c>
     </row>
     <row outlineLevel="0" r="429">
       <c r="A429" s="0">
@@ -7272,6 +8300,9 @@
           <t>بچے سے رشتہ: </t>
         </is>
       </c>
+      <c r="E429" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="430">
       <c r="A430" s="0">
@@ -7288,6 +8319,9 @@
           <t>Directions. This form is about your thoughts and experiences with therapy. Please complete only the sections that have a checkmark at the top. Circle the answer that best tells how true each sentence is about how you usually feel. There are no right or wrong answers. Just circle what you think describes you best.</t>
         </is>
       </c>
+      <c r="F430" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="431">
       <c r="A431" s="0">
@@ -7304,6 +8338,9 @@
           <t>Name:</t>
         </is>
       </c>
+      <c r="F431" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="432">
       <c r="A432" s="0">
@@ -7320,6 +8357,9 @@
           <t>Date:</t>
         </is>
       </c>
+      <c r="F432" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="433">
       <c r="A433" s="0">
@@ -7336,6 +8376,9 @@
           <t>Page</t>
         </is>
       </c>
+      <c r="F433" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="434">
       <c r="A434" s="0">
@@ -7656,6 +8699,9 @@
           <t>Please complete the next 7 items below.</t>
         </is>
       </c>
+      <c r="F453" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="454">
       <c r="A454" s="0">
@@ -7785,6 +8831,9 @@
 In these questions, I would like you to think about the last 30 days. I will ask about how often you may have experienced different feelings during this last month. Please tell me whether you had each feeling: all the time, many times, sometimes or never. Show response card and explain what each line means. Record the response code selected by the respondent.</t>
         </is>
       </c>
+      <c r="E461" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="462">
       <c r="A462" s="0">
@@ -7803,6 +8852,9 @@
 Onyesha kadi ya kurekodi majibu, eleza maana ya kila laini/mstari. Rekodi nambari ya jawabu lililochaguliwa na mhojiwa.</t>
         </is>
       </c>
+      <c r="E462" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="463">
       <c r="A463" s="0">
@@ -7819,9 +8871,6 @@
           <t>Instruksjon: Dette skjemaet handler om tankene og erfaringene dine med terapi. Vennligst fyll ut kun de delene som har et hakemerke på toppen. Sett ring rundt det svaret som best beskriver hvor sann hver setning er for hvordan du vanligvis føler deg. Det er ingen riktige eller gale svar. Bare sett ring rundt det du synes beskriver deg best.</t>
         </is>
       </c>
-      <c r="E463" s="0">
-        <v>0</v>
-      </c>
     </row>
     <row outlineLevel="0" r="464">
       <c r="A464" s="0">
@@ -7838,9 +8887,6 @@
           <t>Vennligst fyll ut de neste 7 punktene nedenfor.</t>
         </is>
       </c>
-      <c r="E464" s="0">
-        <v>0</v>
-      </c>
     </row>
     <row outlineLevel="0" r="465">
       <c r="A465" s="0">
@@ -7857,9 +8903,6 @@
           <t>Side</t>
         </is>
       </c>
-      <c r="E465" s="0">
-        <v>0</v>
-      </c>
     </row>
     <row outlineLevel="0" r="466">
       <c r="A466" s="0">
@@ -7876,9 +8919,6 @@
           <t>Dato:</t>
         </is>
       </c>
-      <c r="E466" s="0">
-        <v>0</v>
-      </c>
     </row>
     <row outlineLevel="0" r="467">
       <c r="A467" s="0">
@@ -7895,9 +8935,6 @@
           <t>Navn:</t>
         </is>
       </c>
-      <c r="E467" s="0">
-        <v>0</v>
-      </c>
     </row>
     <row outlineLevel="0" r="468">
       <c r="A468" s="0">
@@ -7914,9 +8951,6 @@
           <t>Vennligst fyll ut de neste 7 punktene nedenfor.</t>
         </is>
       </c>
-      <c r="E468" s="0">
-        <v>0</v>
-      </c>
     </row>
     <row outlineLevel="0" r="469">
       <c r="A469" s="0">
@@ -7933,9 +8967,6 @@
           <t>Relasjon til barnet:</t>
         </is>
       </c>
-      <c r="E469" s="0">
-        <v>0</v>
-      </c>
     </row>
     <row outlineLevel="0" r="470">
       <c r="A470" s="0">
@@ -7952,9 +8983,6 @@
           <t>Side</t>
         </is>
       </c>
-      <c r="E470" s="0">
-        <v>0</v>
-      </c>
     </row>
     <row outlineLevel="0" r="471">
       <c r="A471" s="0">
@@ -7971,9 +8999,6 @@
           <t>Dato:</t>
         </is>
       </c>
-      <c r="E471" s="0">
-        <v>0</v>
-      </c>
     </row>
     <row outlineLevel="0" r="472">
       <c r="A472" s="0">
@@ -7990,9 +9015,6 @@
           <t>Navn:</t>
         </is>
       </c>
-      <c r="E472" s="0">
-        <v>0</v>
-      </c>
     </row>
     <row outlineLevel="0" r="473">
       <c r="A473" s="0">
@@ -8009,8 +9031,981 @@
           <t>Instruksjon: Dette skjemaet handler om tankene og erfaringene dine rundt terapien til barnet ditt. Vennligst fyll ut kun de delene som har et hakemerke på toppen. Sett ring rundt det svaret som best beskriver hvor sann hver setning er for hvordan du vanligvis føler deg. Det er ingen riktige eller gale svar. Bare sett ring rundt det du synes beskriver deg best.  </t>
         </is>
       </c>
-      <c r="E473" s="0">
+    </row>
+    <row outlineLevel="0" r="474">
+      <c r="A474" s="0">
+        <v>482</v>
+      </c>
+      <c r="B474" s="0">
+        <v>120</v>
+      </c>
+      <c r="C474" s="0">
+        <v>2</v>
+      </c>
+      <c r="D474" s="0" t="inlineStr">
+        <is>
+          <t>তািরখঃ</t>
+        </is>
+      </c>
+      <c r="E474" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="475">
+      <c r="A475" s="0">
+        <v>483</v>
+      </c>
+      <c r="B475" s="0">
+        <v>120</v>
+      </c>
+      <c r="C475" s="0">
+        <v>1</v>
+      </c>
+      <c r="D475" s="0" t="inlineStr">
+        <is>
+          <t>নামঃ</t>
+        </is>
+      </c>
+      <c r="E475" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="476">
+      <c r="A476" s="0">
+        <v>484</v>
+      </c>
+      <c r="B476" s="0">
+        <v>131</v>
+      </c>
+      <c r="C476" s="0">
+        <v>4</v>
+      </c>
+      <c r="D476" s="0" t="inlineStr">
+        <is>
+          <t>Over the last two weeks, how often have you been bothered by the following problems?</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="477">
+      <c r="A477" s="0">
+        <v>485</v>
+      </c>
+      <c r="B477" s="0">
+        <v>133</v>
+      </c>
+      <c r="C477" s="0">
+        <v>2</v>
+      </c>
+      <c r="D477" s="0" t="inlineStr">
+        <is>
+          <t>दिनांक / तारीख</t>
+        </is>
+      </c>
+      <c r="E477" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="478">
+      <c r="A478" s="0">
+        <v>486</v>
+      </c>
+      <c r="B478" s="0">
+        <v>133</v>
+      </c>
+      <c r="C478" s="0">
+        <v>1</v>
+      </c>
+      <c r="D478" s="0" t="inlineStr">
+        <is>
+          <t>नाम / पहचान संख्या</t>
+        </is>
+      </c>
+      <c r="E478" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="479">
+      <c r="A479" s="0">
+        <v>487</v>
+      </c>
+      <c r="B479" s="0">
+        <v>133</v>
+      </c>
+      <c r="C479" s="0">
+        <v>4</v>
+      </c>
+      <c r="D479" s="0" t="inlineStr">
+        <is>
+          <t>कृपया उस शब्द पर गोला लगाएँ जो दिखाता है कि ये चीजें आपके साथ कितनी बार होती हैं। इसमें कोई सही या गलत उत्तर नहीं है।</t>
+        </is>
+      </c>
+      <c r="E479" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="480">
+      <c r="A480" s="0">
+        <v>488</v>
+      </c>
+      <c r="B480" s="0">
+        <v>133</v>
+      </c>
+      <c r="C480" s="0">
+        <v>3</v>
+      </c>
+      <c r="D480" s="0" t="inlineStr">
+        <is>
+          <t>पृष्ठ</t>
+        </is>
+      </c>
+      <c r="E480" s="0">
         <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="481">
+      <c r="A481" s="0">
+        <v>489</v>
+      </c>
+      <c r="B481" s="0">
+        <v>135</v>
+      </c>
+      <c r="C481" s="0">
+        <v>2</v>
+      </c>
+      <c r="D481" s="0" t="inlineStr">
+        <is>
+          <t>दिनांक / तारीख</t>
+        </is>
+      </c>
+      <c r="E481" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="482">
+      <c r="A482" s="0">
+        <v>490</v>
+      </c>
+      <c r="B482" s="0">
+        <v>135</v>
+      </c>
+      <c r="C482" s="0">
+        <v>1</v>
+      </c>
+      <c r="D482" s="0" t="inlineStr">
+        <is>
+          <t>नाम / पहचान संख्या</t>
+        </is>
+      </c>
+      <c r="E482" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="483">
+      <c r="A483" s="0">
+        <v>491</v>
+      </c>
+      <c r="B483" s="0">
+        <v>135</v>
+      </c>
+      <c r="C483" s="0">
+        <v>4</v>
+      </c>
+      <c r="D483" s="0" t="inlineStr">
+        <is>
+          <t>कृपया उस शब्द पर गोला लगाएँ जो दिखाता है कि ये चीजें आपके साथ कितनी बार होती हैं। इसमें कोई सही या गलत उत्तर नहीं है।</t>
+        </is>
+      </c>
+      <c r="E483" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="484">
+      <c r="A484" s="0">
+        <v>492</v>
+      </c>
+      <c r="B484" s="0">
+        <v>135</v>
+      </c>
+      <c r="C484" s="0">
+        <v>3</v>
+      </c>
+      <c r="D484" s="0" t="inlineStr">
+        <is>
+          <t>पृष्ठ</t>
+        </is>
+      </c>
+      <c r="E484" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="485">
+      <c r="A485" s="0">
+        <v>493</v>
+      </c>
+      <c r="B485" s="0">
+        <v>134</v>
+      </c>
+      <c r="C485" s="0">
+        <v>2</v>
+      </c>
+      <c r="D485" s="0" t="inlineStr">
+        <is>
+          <t>दिनांक / तारीख</t>
+        </is>
+      </c>
+      <c r="E485" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="486">
+      <c r="A486" s="0">
+        <v>494</v>
+      </c>
+      <c r="B486" s="0">
+        <v>134</v>
+      </c>
+      <c r="C486" s="0">
+        <v>1</v>
+      </c>
+      <c r="D486" s="0" t="inlineStr">
+        <is>
+          <t>नाम / पहचान संख्या</t>
+        </is>
+      </c>
+      <c r="E486" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="487">
+      <c r="A487" s="0">
+        <v>495</v>
+      </c>
+      <c r="B487" s="0">
+        <v>134</v>
+      </c>
+      <c r="C487" s="0">
+        <v>4</v>
+      </c>
+      <c r="D487" s="0" t="inlineStr">
+        <is>
+          <t>कृपया उस शब्द पर गोला लगाएँ जो दिखाता है कि ये चीजें आपके बच्चे के साथ कितनी बार होती है। इसमें कोई सही या गलत उत्तर नहीं है।</t>
+        </is>
+      </c>
+      <c r="E487" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="488">
+      <c r="A488" s="0">
+        <v>496</v>
+      </c>
+      <c r="B488" s="0">
+        <v>134</v>
+      </c>
+      <c r="C488" s="0">
+        <v>3</v>
+      </c>
+      <c r="D488" s="0" t="inlineStr">
+        <is>
+          <t>पृष्ठ</t>
+        </is>
+      </c>
+      <c r="E488" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="489">
+      <c r="A489" s="0">
+        <v>497</v>
+      </c>
+      <c r="B489" s="0">
+        <v>134</v>
+      </c>
+      <c r="C489" s="0">
+        <v>6</v>
+      </c>
+      <c r="D489" s="0" t="inlineStr">
+        <is>
+          <t>बच्चे से संबंध</t>
+        </is>
+      </c>
+      <c r="E489" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="490">
+      <c r="A490" s="0">
+        <v>498</v>
+      </c>
+      <c r="B490" s="0">
+        <v>136</v>
+      </c>
+      <c r="C490" s="0">
+        <v>2</v>
+      </c>
+      <c r="D490" s="0" t="inlineStr">
+        <is>
+          <t>दिनांक / तारीख</t>
+        </is>
+      </c>
+      <c r="E490" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="491">
+      <c r="A491" s="0">
+        <v>499</v>
+      </c>
+      <c r="B491" s="0">
+        <v>136</v>
+      </c>
+      <c r="C491" s="0">
+        <v>1</v>
+      </c>
+      <c r="D491" s="0" t="inlineStr">
+        <is>
+          <t>नाम / पहचान संख्या</t>
+        </is>
+      </c>
+      <c r="E491" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="492">
+      <c r="A492" s="0">
+        <v>500</v>
+      </c>
+      <c r="B492" s="0">
+        <v>136</v>
+      </c>
+      <c r="C492" s="0">
+        <v>4</v>
+      </c>
+      <c r="D492" s="0" t="inlineStr">
+        <is>
+          <t>कृपया उस शब्द पर गोला लगाएँ जो दिखाता है कि ये चीजें आपके बच्चे के साथ कितनी बार होती है। इसमें कोई सही या गलत उत्तर नहीं है।</t>
+        </is>
+      </c>
+      <c r="E492" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="493">
+      <c r="A493" s="0">
+        <v>501</v>
+      </c>
+      <c r="B493" s="0">
+        <v>136</v>
+      </c>
+      <c r="C493" s="0">
+        <v>3</v>
+      </c>
+      <c r="D493" s="0" t="inlineStr">
+        <is>
+          <t>पृष्ठ</t>
+        </is>
+      </c>
+      <c r="E493" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="494">
+      <c r="A494" s="0">
+        <v>502</v>
+      </c>
+      <c r="B494" s="0">
+        <v>136</v>
+      </c>
+      <c r="C494" s="0">
+        <v>6</v>
+      </c>
+      <c r="D494" s="0" t="inlineStr">
+        <is>
+          <t>बच्चे से संबंध</t>
+        </is>
+      </c>
+      <c r="E494" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="495">
+      <c r="A495" s="0">
+        <v>503</v>
+      </c>
+      <c r="B495" s="0">
+        <v>132</v>
+      </c>
+      <c r="C495" s="0">
+        <v>4</v>
+      </c>
+      <c r="D495" s="0" t="inlineStr">
+        <is>
+          <t>कृप्या उस षब्द पर गोला लगाईये जो इंगित करता है कि प्रत्येक चीज आपके साथ कितनी बार घटित हुई है। यहां कोईभी उत्तर सही और गलत नहीं है।</t>
+        </is>
+      </c>
+      <c r="E495" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="496">
+      <c r="A496" s="0">
+        <v>504</v>
+      </c>
+      <c r="B496" s="0">
+        <v>137</v>
+      </c>
+      <c r="C496" s="0">
+        <v>2</v>
+      </c>
+      <c r="D496" s="0" t="inlineStr">
+        <is>
+          <t>ਤਾਰੀਖ / ਮਿਤੀ</t>
+        </is>
+      </c>
+      <c r="E496" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="497">
+      <c r="A497" s="0">
+        <v>505</v>
+      </c>
+      <c r="B497" s="0">
+        <v>137</v>
+      </c>
+      <c r="C497" s="0">
+        <v>1</v>
+      </c>
+      <c r="D497" s="0" t="inlineStr">
+        <is>
+          <t>ਨਾਂ / ਪਛਾਣ ਨੰਬਰ</t>
+        </is>
+      </c>
+      <c r="E497" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="498">
+      <c r="A498" s="0">
+        <v>506</v>
+      </c>
+      <c r="B498" s="0">
+        <v>137</v>
+      </c>
+      <c r="C498" s="0">
+        <v>4</v>
+      </c>
+      <c r="D498" s="0" t="inlineStr">
+        <is>
+          <t>ਕਿਰਪਾ ਕਰਕੇ ਉਸ ਸ਼ਬਦ 'ਤੇ ਗੋਲ੍ਹਾ ਲਾਓ ਜੋ ਦੱਸਦਾ ਹੈ ਕਿ  ਇਹ ਚੀਜ਼ਾਂ ਤੁਹਾਡੇ ਨਾਲ ਕਿੰਨੀ ਵਾਰੀ ਹੁੰਦੀਆਂ ਹਨ । ਇੱਥੇ ਕੋਈ ਸਹੀ ਜਾਂ ਗਲਤ ਜਵਾਬ ਨਹੀਂ ਹੈ।</t>
+        </is>
+      </c>
+      <c r="E498" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="499">
+      <c r="A499" s="0">
+        <v>507</v>
+      </c>
+      <c r="B499" s="0">
+        <v>137</v>
+      </c>
+      <c r="C499" s="0">
+        <v>3</v>
+      </c>
+      <c r="D499" s="0" t="inlineStr">
+        <is>
+          <t>ਸਫ਼ਾ</t>
+        </is>
+      </c>
+      <c r="E499" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="500">
+      <c r="A500" s="0">
+        <v>508</v>
+      </c>
+      <c r="B500" s="0">
+        <v>139</v>
+      </c>
+      <c r="C500" s="0">
+        <v>2</v>
+      </c>
+      <c r="D500" s="0" t="inlineStr">
+        <is>
+          <t>ਤਾਰੀਖ / ਮਿਤੀ</t>
+        </is>
+      </c>
+      <c r="E500" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="501">
+      <c r="A501" s="0">
+        <v>509</v>
+      </c>
+      <c r="B501" s="0">
+        <v>139</v>
+      </c>
+      <c r="C501" s="0">
+        <v>1</v>
+      </c>
+      <c r="D501" s="0" t="inlineStr">
+        <is>
+          <t>ਨਾਂ / ਪਛਾਣ ਨੰਬਰ</t>
+        </is>
+      </c>
+      <c r="E501" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="502">
+      <c r="A502" s="0">
+        <v>510</v>
+      </c>
+      <c r="B502" s="0">
+        <v>139</v>
+      </c>
+      <c r="C502" s="0">
+        <v>4</v>
+      </c>
+      <c r="D502" s="0" t="inlineStr">
+        <is>
+          <t>ਕਿਰਪਾ ਕਰਕੇ ਉਸ ਸ਼ਬਦ 'ਤੇ ਗੋਲ੍ਹਾ ਲਾਓ ਜੋ ਦੱਸਦਾ ਹੈ ਕਿ  ਇਹ ਚੀਜ਼ਾਂ ਤੁਹਾਡੇ ਨਾਲ ਕਿੰਨੀ ਵਾਰੀ ਹੁੰਦੀਆਂ ਹਨ । ਇੱਥੇ ਕੋਈ ਸਹੀ ਜਾਂ ਗਲਤ ਜਵਾਬ ਨਹੀਂ ਹੈ।</t>
+        </is>
+      </c>
+      <c r="E502" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="503">
+      <c r="A503" s="0">
+        <v>511</v>
+      </c>
+      <c r="B503" s="0">
+        <v>139</v>
+      </c>
+      <c r="C503" s="0">
+        <v>3</v>
+      </c>
+      <c r="D503" s="0" t="inlineStr">
+        <is>
+          <t>ਸਫ਼ਾ</t>
+        </is>
+      </c>
+      <c r="E503" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="504">
+      <c r="A504" s="0">
+        <v>512</v>
+      </c>
+      <c r="B504" s="0">
+        <v>138</v>
+      </c>
+      <c r="C504" s="0">
+        <v>2</v>
+      </c>
+      <c r="D504" s="0" t="inlineStr">
+        <is>
+          <t>ਤਾਰੀਖ / ਮਿਤੀ</t>
+        </is>
+      </c>
+      <c r="E504" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="505">
+      <c r="A505" s="0">
+        <v>513</v>
+      </c>
+      <c r="B505" s="0">
+        <v>138</v>
+      </c>
+      <c r="C505" s="0">
+        <v>1</v>
+      </c>
+      <c r="D505" s="0" t="inlineStr">
+        <is>
+          <t>ਨਾਂ / ਪਛਾਣ ਨੰਬਰ</t>
+        </is>
+      </c>
+      <c r="E505" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="506">
+      <c r="A506" s="0">
+        <v>514</v>
+      </c>
+      <c r="B506" s="0">
+        <v>138</v>
+      </c>
+      <c r="C506" s="0">
+        <v>6</v>
+      </c>
+      <c r="D506" s="0" t="inlineStr">
+        <is>
+          <t>ਬੱਚੇ ਨਾਲ ਰਿਸ਼ਤਾ</t>
+        </is>
+      </c>
+      <c r="E506" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="507">
+      <c r="A507" s="0">
+        <v>515</v>
+      </c>
+      <c r="B507" s="0">
+        <v>138</v>
+      </c>
+      <c r="C507" s="0">
+        <v>4</v>
+      </c>
+      <c r="D507" s="0" t="inlineStr">
+        <is>
+          <t>ਕਿਰਪਾ ਕਰਕੇ ਉਸ ਸ਼ਬਦ 'ਤੇ ਗੋਲ੍ਹਾ ਲਾਓ ਜੋ ਦੱਸਦਾ ਹੈ ਕਿ  ਇਹ ਗੱਲ ਤੁਹਾਡੇ ਬੱਚੇ ਨਾਲ ਕਿੰਨੀ ਵਾਰ ਹੁੰਦੀ ਹੈ। ਇੱਥੇ ਕੋਈ ਸਹੀ ਜਾਂ ਗਲਤ ਜਵਾਬ ਨਹੀਂ ਹੈ।</t>
+        </is>
+      </c>
+      <c r="E507" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="508">
+      <c r="A508" s="0">
+        <v>516</v>
+      </c>
+      <c r="B508" s="0">
+        <v>138</v>
+      </c>
+      <c r="C508" s="0">
+        <v>3</v>
+      </c>
+      <c r="D508" s="0" t="inlineStr">
+        <is>
+          <t>ਸਫ਼ਾ</t>
+        </is>
+      </c>
+      <c r="E508" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="509">
+      <c r="A509" s="0">
+        <v>517</v>
+      </c>
+      <c r="B509" s="0">
+        <v>140</v>
+      </c>
+      <c r="C509" s="0">
+        <v>2</v>
+      </c>
+      <c r="D509" s="0" t="inlineStr">
+        <is>
+          <t>ਤਾਰੀਖ / ਮਿਤੀ</t>
+        </is>
+      </c>
+      <c r="E509" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="510">
+      <c r="A510" s="0">
+        <v>518</v>
+      </c>
+      <c r="B510" s="0">
+        <v>140</v>
+      </c>
+      <c r="C510" s="0">
+        <v>1</v>
+      </c>
+      <c r="D510" s="0" t="inlineStr">
+        <is>
+          <t>ਨਾਂ / ਪਛਾਣ ਨੰਬਰ</t>
+        </is>
+      </c>
+      <c r="E510" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="511">
+      <c r="A511" s="0">
+        <v>519</v>
+      </c>
+      <c r="B511" s="0">
+        <v>140</v>
+      </c>
+      <c r="C511" s="0">
+        <v>6</v>
+      </c>
+      <c r="D511" s="0" t="inlineStr">
+        <is>
+          <t>ਬੱਚੇ ਨਾਲ ਰਿਸ਼ਤਾ</t>
+        </is>
+      </c>
+      <c r="E511" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="512">
+      <c r="A512" s="0">
+        <v>520</v>
+      </c>
+      <c r="B512" s="0">
+        <v>140</v>
+      </c>
+      <c r="C512" s="0">
+        <v>4</v>
+      </c>
+      <c r="D512" s="0" t="inlineStr">
+        <is>
+          <t>ਕਿਰਪਾ ਕਰਕੇ ਉਸ ਸ਼ਬਦ 'ਤੇ ਗੋਲ੍ਹਾ ਲਾਓ ਜੋ ਦੱਸਦਾ ਹੈ ਕਿ  ਇਹ ਗੱਲ ਤੁਹਾਡੇ ਬੱਚੇ ਨਾਲ ਕਿੰਨੀ ਵਾਰ ਹੁੰਦੀ ਹੈ। ਇੱਥੇ ਕੋਈ ਸਹੀ ਜਾਂ ਗਲਤ ਜਵਾਬ ਨਹੀਂ ਹੈ।</t>
+        </is>
+      </c>
+      <c r="E512" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="513">
+      <c r="A513" s="0">
+        <v>521</v>
+      </c>
+      <c r="B513" s="0">
+        <v>140</v>
+      </c>
+      <c r="C513" s="0">
+        <v>3</v>
+      </c>
+      <c r="D513" s="0" t="inlineStr">
+        <is>
+          <t>ਸਫ਼ਾ</t>
+        </is>
+      </c>
+      <c r="E513" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="514">
+      <c r="A514" s="0">
+        <v>522</v>
+      </c>
+      <c r="B514" s="0">
+        <v>73</v>
+      </c>
+      <c r="C514" s="0">
+        <v>1</v>
+      </c>
+      <c r="D514" s="0" t="inlineStr">
+        <is>
+          <t>Imię I nazwisko/Kod</t>
+        </is>
+      </c>
+      <c r="E514" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="515">
+      <c r="A515" s="0">
+        <v>523</v>
+      </c>
+      <c r="B515" s="0">
+        <v>75</v>
+      </c>
+      <c r="C515" s="0">
+        <v>1</v>
+      </c>
+      <c r="D515" s="0" t="inlineStr">
+        <is>
+          <t>Imię I nazwisko/Kod</t>
+        </is>
+      </c>
+      <c r="E515" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="516">
+      <c r="A516" s="0">
+        <v>524</v>
+      </c>
+      <c r="B516" s="0">
+        <v>73</v>
+      </c>
+      <c r="C516" s="0">
+        <v>2</v>
+      </c>
+      <c r="D516" s="0" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="E516" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="517">
+      <c r="A517" s="0">
+        <v>525</v>
+      </c>
+      <c r="B517" s="0">
+        <v>75</v>
+      </c>
+      <c r="C517" s="0">
+        <v>2</v>
+      </c>
+      <c r="D517" s="0" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="E517" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="518">
+      <c r="A518" s="0">
+        <v>526</v>
+      </c>
+      <c r="B518" s="0">
+        <v>73</v>
+      </c>
+      <c r="C518" s="0">
+        <v>4</v>
+      </c>
+      <c r="D518" s="0" t="inlineStr">
+        <is>
+          <t>Zaznacz w kółko odpowiedź, która pasuje do Ciebie najbardziej. Pamiętaj, że nie ma tu dobrych, ani złych odpowiedzi.</t>
+        </is>
+      </c>
+      <c r="E518" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="519">
+      <c r="A519" s="0">
+        <v>527</v>
+      </c>
+      <c r="B519" s="0">
+        <v>75</v>
+      </c>
+      <c r="C519" s="0">
+        <v>4</v>
+      </c>
+      <c r="D519" s="0" t="inlineStr">
+        <is>
+          <t>Zaznacz w kółko odpowiedź, która pasuje do Ciebie najbardziej. Pamiętaj, że nie ma tu dobrych, ani złych odpowiedzi.</t>
+        </is>
+      </c>
+      <c r="E519" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="520">
+      <c r="A520" s="0">
+        <v>528</v>
+      </c>
+      <c r="B520" s="0">
+        <v>113</v>
+      </c>
+      <c r="C520" s="0">
+        <v>4</v>
+      </c>
+      <c r="D520" s="0" t="inlineStr">
+        <is>
+          <t>Cochez le mot qui montre avec quelle fréquence chacune de ces choses vous arrivent. Il n’y a pas de bonnes ou de mauvaises réponses.</t>
+        </is>
+      </c>
+      <c r="E520" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="521">
+      <c r="A521" s="0">
+        <v>529</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="522">
+      <c r="A522" s="0">
+        <v>530</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="523">
+      <c r="A523" s="0">
+        <v>531</v>
+      </c>
+      <c r="B523" s="0">
+        <v>97</v>
+      </c>
+      <c r="C523" s="0">
+        <v>7</v>
+      </c>
+      <c r="D523" s="0" t="inlineStr">
+        <is>
+          <t>Please complete the next 7 items below.</t>
+        </is>
+      </c>
+      <c r="F523" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="524">
+      <c r="A524" s="0">
+        <v>532</v>
+      </c>
+      <c r="B524" s="0">
+        <v>97</v>
+      </c>
+      <c r="C524" s="0">
+        <v>7</v>
+      </c>
+      <c r="D524" s="0" t="inlineStr">
+        <is>
+          <t>Please complete the next 7 items below.</t>
+        </is>
+      </c>
+      <c r="F524" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="525">
+      <c r="A525" s="0">
+        <v>533</v>
+      </c>
+      <c r="B525" s="0">
+        <v>97</v>
+      </c>
+      <c r="C525" s="0">
+        <v>7</v>
+      </c>
+      <c r="D525" s="0" t="inlineStr">
+        <is>
+          <t>Please complete the next 7 items below.</t>
+        </is>
+      </c>
+      <c r="F525" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="526">
+      <c r="A526" s="0">
+        <v>534</v>
+      </c>
+      <c r="B526" s="0">
+        <v>97</v>
+      </c>
+      <c r="C526" s="0">
+        <v>7</v>
+      </c>
+      <c r="D526" s="0" t="inlineStr">
+        <is>
+          <t>Please complete the next 7 items below.</t>
+        </is>
+      </c>
+      <c r="F526" s="0">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/rcads/data/xls/11_InstrumentComponents.xlsx
+++ b/rcads/data/xls/11_InstrumentComponents.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="_11_InstrumentComponents"/>
   </sheets>
   <definedNames>
-    <definedName name="_11_InstrumentComponents">'_11_InstrumentComponents'!$A$1:$F$526</definedName>
+    <definedName name="_11_InstrumentComponents">'_11_InstrumentComponents'!$A$1:$E$526</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -343,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F526"/>
+  <dimension ref="A1:E526"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -377,11 +377,6 @@
           <t>ComponentPosition_FHIR</t>
         </is>
       </c>
-      <c r="F1" s="0" t="inlineStr">
-        <is>
-          <t>Section</t>
-        </is>
-      </c>
     </row>
     <row outlineLevel="0" r="2">
       <c r="A2" s="0">
@@ -401,9 +396,6 @@
       <c r="E2" s="0">
         <v>1</v>
       </c>
-      <c r="F2" s="0">
-        <v>1</v>
-      </c>
     </row>
     <row outlineLevel="0" r="3">
       <c r="A3" s="0">
@@ -422,9 +414,6 @@
       </c>
       <c r="E3" s="0">
         <v>2</v>
-      </c>
-      <c r="F3" s="0">
-        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="4">
@@ -442,9 +431,6 @@
           <t>Page</t>
         </is>
       </c>
-      <c r="F4" s="0">
-        <v>0</v>
-      </c>
     </row>
     <row outlineLevel="0" r="5">
       <c r="A5" s="0">
@@ -464,9 +450,6 @@
       <c r="E5" s="0">
         <v>3</v>
       </c>
-      <c r="F5" s="0">
-        <v>1</v>
-      </c>
     </row>
     <row outlineLevel="0" r="6">
       <c r="A6" s="0">
@@ -486,9 +469,6 @@
       <c r="E6" s="0">
         <v>1</v>
       </c>
-      <c r="F6" s="0">
-        <v>1</v>
-      </c>
     </row>
     <row outlineLevel="0" r="7">
       <c r="A7" s="0">
@@ -508,9 +488,6 @@
       <c r="E7" s="0">
         <v>2</v>
       </c>
-      <c r="F7" s="0">
-        <v>1</v>
-      </c>
     </row>
     <row outlineLevel="0" r="8">
       <c r="A8" s="0">
@@ -527,9 +504,6 @@
           <t>Page</t>
         </is>
       </c>
-      <c r="F8" s="0">
-        <v>0</v>
-      </c>
     </row>
     <row outlineLevel="0" r="9">
       <c r="A9" s="0">
@@ -549,9 +523,6 @@
       <c r="E9" s="0">
         <v>4</v>
       </c>
-      <c r="F9" s="0">
-        <v>1</v>
-      </c>
     </row>
     <row outlineLevel="0" r="10">
       <c r="A10" s="0">
@@ -571,9 +542,6 @@
       <c r="E10" s="0">
         <v>3</v>
       </c>
-      <c r="F10" s="0">
-        <v>1</v>
-      </c>
     </row>
     <row outlineLevel="0" r="11">
       <c r="A11" s="0">
@@ -593,9 +561,6 @@
       <c r="E11" s="0">
         <v>1</v>
       </c>
-      <c r="F11" s="0">
-        <v>1</v>
-      </c>
     </row>
     <row outlineLevel="0" r="12">
       <c r="A12" s="0">
@@ -8319,9 +8284,6 @@
           <t>Directions. This form is about your thoughts and experiences with therapy. Please complete only the sections that have a checkmark at the top. Circle the answer that best tells how true each sentence is about how you usually feel. There are no right or wrong answers. Just circle what you think describes you best.</t>
         </is>
       </c>
-      <c r="F430" s="0">
-        <v>1</v>
-      </c>
     </row>
     <row outlineLevel="0" r="431">
       <c r="A431" s="0">
@@ -8338,9 +8300,6 @@
           <t>Name:</t>
         </is>
       </c>
-      <c r="F431" s="0">
-        <v>1</v>
-      </c>
     </row>
     <row outlineLevel="0" r="432">
       <c r="A432" s="0">
@@ -8357,9 +8316,6 @@
           <t>Date:</t>
         </is>
       </c>
-      <c r="F432" s="0">
-        <v>1</v>
-      </c>
     </row>
     <row outlineLevel="0" r="433">
       <c r="A433" s="0">
@@ -8376,9 +8332,6 @@
           <t>Page</t>
         </is>
       </c>
-      <c r="F433" s="0">
-        <v>1</v>
-      </c>
     </row>
     <row outlineLevel="0" r="434">
       <c r="A434" s="0">
@@ -8699,9 +8652,6 @@
           <t>Please complete the next 7 items below.</t>
         </is>
       </c>
-      <c r="F453" s="0">
-        <v>2</v>
-      </c>
     </row>
     <row outlineLevel="0" r="454">
       <c r="A454" s="0">
@@ -9947,9 +9897,6 @@
           <t>Please complete the next 7 items below.</t>
         </is>
       </c>
-      <c r="F523" s="0">
-        <v>3</v>
-      </c>
     </row>
     <row outlineLevel="0" r="524">
       <c r="A524" s="0">
@@ -9966,9 +9913,6 @@
           <t>Please complete the next 7 items below.</t>
         </is>
       </c>
-      <c r="F524" s="0">
-        <v>4</v>
-      </c>
     </row>
     <row outlineLevel="0" r="525">
       <c r="A525" s="0">
@@ -9985,9 +9929,6 @@
           <t>Please complete the next 7 items below.</t>
         </is>
       </c>
-      <c r="F525" s="0">
-        <v>5</v>
-      </c>
     </row>
     <row outlineLevel="0" r="526">
       <c r="A526" s="0">
@@ -10003,9 +9944,6 @@
         <is>
           <t>Please complete the next 7 items below.</t>
         </is>
-      </c>
-      <c r="F526" s="0">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/rcads/data/xls/11_InstrumentComponents.xlsx
+++ b/rcads/data/xls/11_InstrumentComponents.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="_11_InstrumentComponents"/>
   </sheets>
   <definedNames>
-    <definedName name="_11_InstrumentComponents">'_11_InstrumentComponents'!$A$1:$E$526</definedName>
+    <definedName name="_11_InstrumentComponents">'_11_InstrumentComponents'!$A$1:$E$529</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -343,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E526"/>
+  <dimension ref="A1:E529"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -9946,6 +9946,63 @@
         </is>
       </c>
     </row>
+    <row outlineLevel="0" r="527">
+      <c r="A527" s="0">
+        <v>535</v>
+      </c>
+      <c r="B527" s="0">
+        <v>143</v>
+      </c>
+      <c r="C527" s="0">
+        <v>2</v>
+      </c>
+      <c r="D527" s="0" t="inlineStr">
+        <is>
+          <t>Огноо</t>
+        </is>
+      </c>
+      <c r="E527" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="528">
+      <c r="A528" s="0">
+        <v>536</v>
+      </c>
+      <c r="B528" s="0">
+        <v>143</v>
+      </c>
+      <c r="C528" s="0">
+        <v>1</v>
+      </c>
+      <c r="D528" s="0" t="inlineStr">
+        <is>
+          <t>Нэр/КОД</t>
+        </is>
+      </c>
+      <c r="E528" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="529">
+      <c r="A529" s="0">
+        <v>537</v>
+      </c>
+      <c r="B529" s="0">
+        <v>143</v>
+      </c>
+      <c r="C529" s="0">
+        <v>4</v>
+      </c>
+      <c r="D529" s="0" t="inlineStr">
+        <is>
+          <t>Доорх зүйлс танд хэр ойр ойрхон тохиолддогийг илэрхийлж буй үгийг дугуйлна уу. Зөв эсвэл буруу хариулт гэж байхгүй.</t>
+        </is>
+      </c>
+      <c r="E529" s="0">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rcads/data/xls/11_InstrumentComponents.xlsx
+++ b/rcads/data/xls/11_InstrumentComponents.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="_11_InstrumentComponents"/>
   </sheets>
   <definedNames>
-    <definedName name="_11_InstrumentComponents">'_11_InstrumentComponents'!$A$1:$E$529</definedName>
+    <definedName name="_11_InstrumentComponents">'_11_InstrumentComponents'!$A$1:$E$543</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -343,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E529"/>
+  <dimension ref="A1:E543"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -10003,6 +10003,233 @@
         <v>3</v>
       </c>
     </row>
+    <row outlineLevel="0" r="530">
+      <c r="A530" s="0">
+        <v>538</v>
+      </c>
+      <c r="B530" s="0">
+        <v>148</v>
+      </c>
+      <c r="C530" s="0">
+        <v>2</v>
+      </c>
+      <c r="D530" s="0" t="inlineStr">
+        <is>
+          <t>Огноо</t>
+        </is>
+      </c>
+      <c r="E530" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="531">
+      <c r="A531" s="0">
+        <v>539</v>
+      </c>
+      <c r="B531" s="0">
+        <v>148</v>
+      </c>
+      <c r="C531" s="0">
+        <v>1</v>
+      </c>
+      <c r="D531" s="0" t="inlineStr">
+        <is>
+          <t>Нэр/КОД</t>
+        </is>
+      </c>
+      <c r="E531" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="532">
+      <c r="A532" s="0">
+        <v>540</v>
+      </c>
+      <c r="B532" s="0">
+        <v>148</v>
+      </c>
+      <c r="C532" s="0">
+        <v>4</v>
+      </c>
+      <c r="D532" s="0" t="inlineStr">
+        <is>
+          <t>Доорх зүйлс танд хэр ойр ойрхон тохиолддогийг илэрхийлж буй үгийг дугуйлна уу. Зөв эсвэл буруу хариулт гэж байхгүй.</t>
+        </is>
+      </c>
+      <c r="E532" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="533">
+      <c r="A533" s="0">
+        <v>541</v>
+      </c>
+      <c r="B533" s="0">
+        <v>147</v>
+      </c>
+      <c r="C533" s="0">
+        <v>2</v>
+      </c>
+      <c r="D533" s="0" t="inlineStr">
+        <is>
+          <t>Огноо</t>
+        </is>
+      </c>
+      <c r="E533" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="534">
+      <c r="A534" s="0">
+        <v>542</v>
+      </c>
+      <c r="B534" s="0">
+        <v>147</v>
+      </c>
+      <c r="C534" s="0">
+        <v>1</v>
+      </c>
+      <c r="D534" s="0" t="inlineStr">
+        <is>
+          <t>Нэр/КОД</t>
+        </is>
+      </c>
+      <c r="E534" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="535">
+      <c r="A535" s="0">
+        <v>543</v>
+      </c>
+      <c r="B535" s="0">
+        <v>147</v>
+      </c>
+      <c r="C535" s="0">
+        <v>4</v>
+      </c>
+      <c r="D535" s="0" t="inlineStr">
+        <is>
+          <t>Доорх зүйлс таны хүүхдэд хэр ойр ойрхон тохиолддогийг илэрхийлж буй үгийг дугуйлна уу.</t>
+        </is>
+      </c>
+      <c r="E535" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="536">
+      <c r="A536" s="0">
+        <v>544</v>
+      </c>
+      <c r="B536" s="0">
+        <v>147</v>
+      </c>
+      <c r="C536" s="0">
+        <v>6</v>
+      </c>
+      <c r="D536" s="0" t="inlineStr">
+        <is>
+          <t>Хүүхэдтэй ямар хамааралтай болох</t>
+        </is>
+      </c>
+      <c r="E536" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="537">
+      <c r="A537" s="0">
+        <v>545</v>
+      </c>
+      <c r="B537" s="0">
+        <v>149</v>
+      </c>
+      <c r="C537" s="0">
+        <v>2</v>
+      </c>
+      <c r="D537" s="0" t="inlineStr">
+        <is>
+          <t>Огноо</t>
+        </is>
+      </c>
+      <c r="E537" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="538">
+      <c r="A538" s="0">
+        <v>546</v>
+      </c>
+      <c r="B538" s="0">
+        <v>149</v>
+      </c>
+      <c r="C538" s="0">
+        <v>1</v>
+      </c>
+      <c r="D538" s="0" t="inlineStr">
+        <is>
+          <t>Нэр/КОД</t>
+        </is>
+      </c>
+      <c r="E538" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="539">
+      <c r="A539" s="0">
+        <v>547</v>
+      </c>
+      <c r="B539" s="0">
+        <v>149</v>
+      </c>
+      <c r="C539" s="0">
+        <v>4</v>
+      </c>
+      <c r="D539" s="0" t="inlineStr">
+        <is>
+          <t>Доорх зүйлс таны хүүхдэд хэр ойр ойрхон тохиолддогийг илэрхийлж буй үгийг дугуйлна уу.</t>
+        </is>
+      </c>
+      <c r="E539" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="540">
+      <c r="A540" s="0">
+        <v>548</v>
+      </c>
+      <c r="B540" s="0">
+        <v>149</v>
+      </c>
+      <c r="C540" s="0">
+        <v>6</v>
+      </c>
+      <c r="D540" s="0" t="inlineStr">
+        <is>
+          <t>Хүүхэдтэй ямар хамааралтай болох</t>
+        </is>
+      </c>
+      <c r="E540" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="541">
+      <c r="A541" s="0">
+        <v>549</v>
+      </c>
+      <c r="E541" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="542">
+      <c r="A542" s="0">
+        <v>550</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="543">
+      <c r="A543" s="0">
+        <v>551</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rcads/data/xls/11_InstrumentComponents.xlsx
+++ b/rcads/data/xls/11_InstrumentComponents.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="_11_InstrumentComponents"/>
   </sheets>
   <definedNames>
-    <definedName name="_11_InstrumentComponents">'_11_InstrumentComponents'!$A$1:$E$543</definedName>
+    <definedName name="_11_InstrumentComponents">'_11_InstrumentComponents'!$A$1:$E$600</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -343,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E543"/>
+  <dimension ref="A1:E600"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -9876,11 +9876,39 @@
       <c r="A521" s="0">
         <v>529</v>
       </c>
+      <c r="B521" s="0">
+        <v>166</v>
+      </c>
+      <c r="C521" s="0">
+        <v>2</v>
+      </c>
+      <c r="D521" s="0" t="inlineStr">
+        <is>
+          <t>दिनांक</t>
+        </is>
+      </c>
+      <c r="E521" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="522">
       <c r="A522" s="0">
         <v>530</v>
       </c>
+      <c r="B522" s="0">
+        <v>166</v>
+      </c>
+      <c r="C522" s="0">
+        <v>1</v>
+      </c>
+      <c r="D522" s="0" t="inlineStr">
+        <is>
+          <t>नाव</t>
+        </is>
+      </c>
+      <c r="E522" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="523">
       <c r="A523" s="0">
@@ -10216,18 +10244,1140 @@
       <c r="A541" s="0">
         <v>549</v>
       </c>
+      <c r="B541" s="0">
+        <v>166</v>
+      </c>
+      <c r="C541" s="0">
+        <v>4</v>
+      </c>
+      <c r="D541" s="0" t="inlineStr">
+        <is>
+          <t>खालील प्रत्येक विधानाला दिलेल्या पर्यायांमधून (उदा. कधीच नाही, कधीकधी, वारंवार, नेहमीच) तुमच्यासाठी योग्य असलेला पर्याय निवडा व त्याच्या भोवती वर्तुळ करा.</t>
+        </is>
+      </c>
       <c r="E541" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row outlineLevel="0" r="542">
       <c r="A542" s="0">
         <v>550</v>
       </c>
+      <c r="B542" s="0">
+        <v>166</v>
+      </c>
+      <c r="C542" s="0">
+        <v>5</v>
+      </c>
+      <c r="D542" s="0" t="inlineStr">
+        <is>
+          <t>खालील प्रत्येक विधानाला दिलेल्या पर्यायांमधून (उदा. कधीच नाही, कधीकधी, वारंवार, नेहमीच) तुमच्यासाठी योग्य असलेला पर्याय निवडा व त्याच्या भोवती वर्तुळ करा.</t>
+        </is>
+      </c>
+      <c r="E542" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row outlineLevel="0" r="543">
       <c r="A543" s="0">
         <v>551</v>
+      </c>
+      <c r="B543" s="0">
+        <v>168</v>
+      </c>
+      <c r="C543" s="0">
+        <v>1</v>
+      </c>
+      <c r="D543" s="0" t="inlineStr">
+        <is>
+          <t>नाव</t>
+        </is>
+      </c>
+      <c r="E543" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="544">
+      <c r="A544" s="0">
+        <v>552</v>
+      </c>
+      <c r="B544" s="0">
+        <v>168</v>
+      </c>
+      <c r="C544" s="0">
+        <v>2</v>
+      </c>
+      <c r="D544" s="0" t="inlineStr">
+        <is>
+          <t>दिनांक</t>
+        </is>
+      </c>
+      <c r="E544" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="545">
+      <c r="A545" s="0">
+        <v>553</v>
+      </c>
+      <c r="B545" s="0">
+        <v>168</v>
+      </c>
+      <c r="C545" s="0">
+        <v>4</v>
+      </c>
+      <c r="D545" s="0" t="inlineStr">
+        <is>
+          <t>खालील प्रत्येक विधानाला दिलेल्या पर्यायांमधून (उदा. कधीच नाही, कधीकधी, वारंवार, नेहमीच) तुमच्यासाठी योग्य असलेला पर्याय निवडा व त्याच्या भोवती वर्तुळ करा.</t>
+        </is>
+      </c>
+      <c r="E545" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="546">
+      <c r="A546" s="0">
+        <v>554</v>
+      </c>
+      <c r="B546" s="0">
+        <v>168</v>
+      </c>
+      <c r="C546" s="0">
+        <v>5</v>
+      </c>
+      <c r="D546" s="0" t="inlineStr">
+        <is>
+          <t>खालील प्रत्येक विधानाला दिलेल्या पर्यायांमधून (उदा. कधीच नाही, कधीकधी, वारंवार, नेहमीच) तुमच्यासाठी योग्य असलेला पर्याय निवडा व त्याच्या भोवती वर्तुळ करा.</t>
+        </is>
+      </c>
+      <c r="E546" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="547">
+      <c r="A547" s="0">
+        <v>555</v>
+      </c>
+      <c r="B547" s="0">
+        <v>168</v>
+      </c>
+      <c r="C547" s="0">
+        <v>3</v>
+      </c>
+      <c r="D547" s="0" t="inlineStr">
+        <is>
+          <t>पान</t>
+        </is>
+      </c>
+      <c r="E547" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="548">
+      <c r="A548" s="0">
+        <v>556</v>
+      </c>
+      <c r="B548" s="0">
+        <v>166</v>
+      </c>
+      <c r="C548" s="0">
+        <v>3</v>
+      </c>
+      <c r="D548" s="0" t="inlineStr">
+        <is>
+          <t>पान</t>
+        </is>
+      </c>
+      <c r="E548" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="549">
+      <c r="A549" s="0">
+        <v>557</v>
+      </c>
+      <c r="B549" s="0">
+        <v>167</v>
+      </c>
+      <c r="C549" s="0">
+        <v>3</v>
+      </c>
+      <c r="D549" s="0" t="inlineStr">
+        <is>
+          <t>पान</t>
+        </is>
+      </c>
+      <c r="E549" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="550">
+      <c r="A550" s="0">
+        <v>558</v>
+      </c>
+      <c r="B550" s="0">
+        <v>169</v>
+      </c>
+      <c r="C550" s="0">
+        <v>3</v>
+      </c>
+      <c r="D550" s="0" t="inlineStr">
+        <is>
+          <t>पान</t>
+        </is>
+      </c>
+      <c r="E550" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="551">
+      <c r="A551" s="0">
+        <v>559</v>
+      </c>
+      <c r="B551" s="0">
+        <v>167</v>
+      </c>
+      <c r="C551" s="0">
+        <v>2</v>
+      </c>
+      <c r="D551" s="0" t="inlineStr">
+        <is>
+          <t>दिनांक</t>
+        </is>
+      </c>
+      <c r="E551" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="552">
+      <c r="A552" s="0">
+        <v>560</v>
+      </c>
+      <c r="B552" s="0">
+        <v>169</v>
+      </c>
+      <c r="C552" s="0">
+        <v>2</v>
+      </c>
+      <c r="D552" s="0" t="inlineStr">
+        <is>
+          <t>दिनांक</t>
+        </is>
+      </c>
+      <c r="E552" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="553">
+      <c r="A553" s="0">
+        <v>561</v>
+      </c>
+      <c r="B553" s="0">
+        <v>167</v>
+      </c>
+      <c r="C553" s="0">
+        <v>1</v>
+      </c>
+      <c r="D553" s="0" t="inlineStr">
+        <is>
+          <t>नाव</t>
+        </is>
+      </c>
+      <c r="E553" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="554">
+      <c r="A554" s="0">
+        <v>562</v>
+      </c>
+      <c r="B554" s="0">
+        <v>169</v>
+      </c>
+      <c r="C554" s="0">
+        <v>1</v>
+      </c>
+      <c r="D554" s="0" t="inlineStr">
+        <is>
+          <t>नाव</t>
+        </is>
+      </c>
+      <c r="E554" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="555">
+      <c r="A555" s="0">
+        <v>563</v>
+      </c>
+      <c r="B555" s="0">
+        <v>167</v>
+      </c>
+      <c r="C555" s="0">
+        <v>6</v>
+      </c>
+      <c r="D555" s="0" t="inlineStr">
+        <is>
+          <t>मुला/मुली बरोबर नातं</t>
+        </is>
+      </c>
+      <c r="E555" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="556">
+      <c r="A556" s="0">
+        <v>564</v>
+      </c>
+      <c r="B556" s="0">
+        <v>169</v>
+      </c>
+      <c r="C556" s="0">
+        <v>6</v>
+      </c>
+      <c r="D556" s="0" t="inlineStr">
+        <is>
+          <t>मुला/मुली बरोबर नातं</t>
+        </is>
+      </c>
+      <c r="E556" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="557">
+      <c r="A557" s="0">
+        <v>565</v>
+      </c>
+      <c r="B557" s="0">
+        <v>167</v>
+      </c>
+      <c r="C557" s="0">
+        <v>4</v>
+      </c>
+      <c r="D557" s="0" t="inlineStr">
+        <is>
+          <t>खालील प्रत्येक विधानाला दिलेल्या पर्यायांमधून (उदा. कधीच नाही, कधीकधी, वारंवार, नेहमीच ) तुमच्या मुला/मुली साठी योग्य असलेला पर्याय निवडावा व त्याच्या भोवती वर्तुळ करा.</t>
+        </is>
+      </c>
+      <c r="E557" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="558">
+      <c r="A558" s="0">
+        <v>566</v>
+      </c>
+      <c r="B558" s="0">
+        <v>169</v>
+      </c>
+      <c r="C558" s="0">
+        <v>4</v>
+      </c>
+      <c r="D558" s="0" t="inlineStr">
+        <is>
+          <t>खालील प्रत्येक विधानाला दिलेल्या पर्यायांमधून (उदा. कधीच नाही, कधीकधी, वारंवार, नेहमीच ) तुमच्या मुला/मुली साठी योग्य असलेला पर्याय निवडावा व त्याच्या भोवती वर्तुळ करा.</t>
+        </is>
+      </c>
+      <c r="E558" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="559">
+      <c r="A559" s="0">
+        <v>567</v>
+      </c>
+      <c r="B559" s="0">
+        <v>167</v>
+      </c>
+      <c r="C559" s="0">
+        <v>5</v>
+      </c>
+      <c r="D559" s="0" t="inlineStr">
+        <is>
+          <t>खालील प्रत्येक विधानाला दिलेल्या पर्यायांमधून (उदा. कधीच नाही, कधीकधी, वारंवार, नेहमीच ) तुमच्या मुला/मुली साठी योग्य असलेला पर्याय निवडावा व त्याच्या भोवती वर्तुळ करा.</t>
+        </is>
+      </c>
+      <c r="E559" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="560">
+      <c r="A560" s="0">
+        <v>568</v>
+      </c>
+      <c r="B560" s="0">
+        <v>169</v>
+      </c>
+      <c r="C560" s="0">
+        <v>5</v>
+      </c>
+      <c r="D560" s="0" t="inlineStr">
+        <is>
+          <t>खालील प्रत्येक विधानाला दिलेल्या पर्यायांमधून (उदा. कधीच नाही, कधीकधी, वारंवार, नेहमीच ) तुमच्या मुला/मुली साठी योग्य असलेला पर्याय निवडावा व त्याच्या भोवती वर्तुळ करा.</t>
+        </is>
+      </c>
+      <c r="E560" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="561">
+      <c r="A561" s="0">
+        <v>569</v>
+      </c>
+      <c r="B561" s="0">
+        <v>109</v>
+      </c>
+      <c r="C561" s="0">
+        <v>2</v>
+      </c>
+      <c r="D561" s="0" t="inlineStr">
+        <is>
+          <t>Датум</t>
+        </is>
+      </c>
+      <c r="E561" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="562">
+      <c r="A562" s="0">
+        <v>570</v>
+      </c>
+      <c r="B562" s="0">
+        <v>109</v>
+      </c>
+      <c r="C562" s="0">
+        <v>1</v>
+      </c>
+      <c r="D562" s="0" t="inlineStr">
+        <is>
+          <t>Име/ИД</t>
+        </is>
+      </c>
+      <c r="E562" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="563">
+      <c r="A563" s="0">
+        <v>571</v>
+      </c>
+      <c r="B563" s="0">
+        <v>109</v>
+      </c>
+      <c r="C563" s="0">
+        <v>4</v>
+      </c>
+      <c r="D563" s="0" t="inlineStr">
+        <is>
+          <t>Молимо те да заокружиш реч која показује колико често ти се свака од ових ствари дешава. Немa тачних или погрешних одговора.</t>
+        </is>
+      </c>
+      <c r="E563" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="564">
+      <c r="A564" s="0">
+        <v>572</v>
+      </c>
+      <c r="B564" s="0">
+        <v>141</v>
+      </c>
+      <c r="C564" s="0">
+        <v>2</v>
+      </c>
+      <c r="D564" s="0" t="inlineStr">
+        <is>
+          <t>Датум</t>
+        </is>
+      </c>
+      <c r="E564" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="565">
+      <c r="A565" s="0">
+        <v>573</v>
+      </c>
+      <c r="B565" s="0">
+        <v>141</v>
+      </c>
+      <c r="C565" s="0">
+        <v>1</v>
+      </c>
+      <c r="D565" s="0" t="inlineStr">
+        <is>
+          <t>Име/ИД</t>
+        </is>
+      </c>
+      <c r="E565" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="566">
+      <c r="A566" s="0">
+        <v>574</v>
+      </c>
+      <c r="B566" s="0">
+        <v>141</v>
+      </c>
+      <c r="C566" s="0">
+        <v>4</v>
+      </c>
+      <c r="D566" s="0" t="inlineStr">
+        <is>
+          <t>Молимо те да заокружиш реч која показује колико често ти се свака од ових ствари дешава. Нема тачних или погрешних одговора.</t>
+        </is>
+      </c>
+      <c r="E566" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="567">
+      <c r="A567" s="0">
+        <v>575</v>
+      </c>
+      <c r="B567" s="0">
+        <v>110</v>
+      </c>
+      <c r="C567" s="0">
+        <v>2</v>
+      </c>
+      <c r="D567" s="0" t="inlineStr">
+        <is>
+          <t>Датум</t>
+        </is>
+      </c>
+      <c r="E567" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="568">
+      <c r="A568" s="0">
+        <v>576</v>
+      </c>
+      <c r="B568" s="0">
+        <v>110</v>
+      </c>
+      <c r="C568" s="0">
+        <v>1</v>
+      </c>
+      <c r="D568" s="0" t="inlineStr">
+        <is>
+          <t>Име/ИД</t>
+        </is>
+      </c>
+      <c r="E568" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="569">
+      <c r="A569" s="0">
+        <v>577</v>
+      </c>
+      <c r="B569" s="0">
+        <v>110</v>
+      </c>
+      <c r="C569" s="0">
+        <v>4</v>
+      </c>
+      <c r="D569" s="0" t="inlineStr">
+        <is>
+          <t>Молим вас, заокружите реч која показује колико често се свака од ових ствари дешава вашем детету.</t>
+        </is>
+      </c>
+      <c r="E569" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="570">
+      <c r="A570" s="0">
+        <v>578</v>
+      </c>
+      <c r="B570" s="0">
+        <v>110</v>
+      </c>
+      <c r="C570" s="0">
+        <v>6</v>
+      </c>
+      <c r="D570" s="0" t="inlineStr">
+        <is>
+          <t>Однос са дететом</t>
+        </is>
+      </c>
+      <c r="E570" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="571">
+      <c r="A571" s="0">
+        <v>579</v>
+      </c>
+      <c r="B571" s="0">
+        <v>142</v>
+      </c>
+      <c r="C571" s="0">
+        <v>2</v>
+      </c>
+      <c r="D571" s="0" t="inlineStr">
+        <is>
+          <t>Датум</t>
+        </is>
+      </c>
+      <c r="E571" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="572">
+      <c r="A572" s="0">
+        <v>580</v>
+      </c>
+      <c r="B572" s="0">
+        <v>142</v>
+      </c>
+      <c r="C572" s="0">
+        <v>1</v>
+      </c>
+      <c r="D572" s="0" t="inlineStr">
+        <is>
+          <t>Име/ИД</t>
+        </is>
+      </c>
+      <c r="E572" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="573">
+      <c r="A573" s="0">
+        <v>581</v>
+      </c>
+      <c r="B573" s="0">
+        <v>142</v>
+      </c>
+      <c r="C573" s="0">
+        <v>4</v>
+      </c>
+      <c r="D573" s="0" t="inlineStr">
+        <is>
+          <t>Молим вас, заокружите реч која показује колико често се свака од ових ствари дешава вашем детету.</t>
+        </is>
+      </c>
+      <c r="E573" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="574">
+      <c r="A574" s="0">
+        <v>582</v>
+      </c>
+      <c r="B574" s="0">
+        <v>142</v>
+      </c>
+      <c r="C574" s="0">
+        <v>6</v>
+      </c>
+      <c r="D574" s="0" t="inlineStr">
+        <is>
+          <t>Однос са дететом</t>
+        </is>
+      </c>
+      <c r="E574" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="575">
+      <c r="A575" s="0">
+        <v>583</v>
+      </c>
+      <c r="B575" s="0">
+        <v>109</v>
+      </c>
+      <c r="C575" s="0">
+        <v>3</v>
+      </c>
+      <c r="D575" s="0" t="inlineStr">
+        <is>
+          <t>Страна</t>
+        </is>
+      </c>
+      <c r="E575" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="576">
+      <c r="A576" s="0">
+        <v>584</v>
+      </c>
+      <c r="B576" s="0">
+        <v>110</v>
+      </c>
+      <c r="C576" s="0">
+        <v>3</v>
+      </c>
+      <c r="D576" s="0" t="inlineStr">
+        <is>
+          <t>Страна</t>
+        </is>
+      </c>
+      <c r="E576" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="577">
+      <c r="A577" s="0">
+        <v>585</v>
+      </c>
+      <c r="B577" s="0">
+        <v>141</v>
+      </c>
+      <c r="C577" s="0">
+        <v>3</v>
+      </c>
+      <c r="D577" s="0" t="inlineStr">
+        <is>
+          <t>Страна</t>
+        </is>
+      </c>
+      <c r="E577" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="578">
+      <c r="A578" s="0">
+        <v>586</v>
+      </c>
+      <c r="B578" s="0">
+        <v>142</v>
+      </c>
+      <c r="C578" s="0">
+        <v>3</v>
+      </c>
+      <c r="D578" s="0" t="inlineStr">
+        <is>
+          <t>Страна</t>
+        </is>
+      </c>
+      <c r="E578" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="579">
+      <c r="A579" s="0">
+        <v>587</v>
+      </c>
+      <c r="B579" s="0">
+        <v>162</v>
+      </c>
+      <c r="C579" s="0">
+        <v>1</v>
+      </c>
+      <c r="D579" s="0" t="inlineStr">
+        <is>
+          <t>Họ tên/Mã</t>
+        </is>
+      </c>
+      <c r="E579" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="580">
+      <c r="A580" s="0">
+        <v>588</v>
+      </c>
+      <c r="B580" s="0">
+        <v>162</v>
+      </c>
+      <c r="C580" s="0">
+        <v>2</v>
+      </c>
+      <c r="D580" s="0" t="inlineStr">
+        <is>
+          <t>Ngày</t>
+        </is>
+      </c>
+      <c r="E580" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="581">
+      <c r="A581" s="0">
+        <v>589</v>
+      </c>
+      <c r="B581" s="0">
+        <v>162</v>
+      </c>
+      <c r="C581" s="0">
+        <v>4</v>
+      </c>
+      <c r="D581" s="0" t="inlineStr">
+        <is>
+          <t>Vui lòng khoanh tròn một từ biểu thị mức độ thường xuyên mà mỗi điều dưới đây xảy ra với bạn. Không có câu trả lời đúng hay sai.</t>
+        </is>
+      </c>
+      <c r="E581" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="582">
+      <c r="A582" s="0">
+        <v>590</v>
+      </c>
+      <c r="B582" s="0">
+        <v>162</v>
+      </c>
+      <c r="C582" s="0">
+        <v>5</v>
+      </c>
+      <c r="D582" s="0" t="inlineStr">
+        <is>
+          <t>Vui lòng chọn một từ biểu thị mức độ thường xuyên mà mỗi điều dưới đây xảy ra với bạn. Không có câu trả lời đúng hay sai.</t>
+        </is>
+      </c>
+      <c r="E582" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="583">
+      <c r="A583" s="0">
+        <v>591</v>
+      </c>
+      <c r="B583" s="0">
+        <v>162</v>
+      </c>
+      <c r="C583" s="0">
+        <v>3</v>
+      </c>
+      <c r="D583" s="0" t="inlineStr">
+        <is>
+          <t>Trang</t>
+        </is>
+      </c>
+      <c r="E583" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="584">
+      <c r="A584" s="0">
+        <v>592</v>
+      </c>
+      <c r="B584" s="0">
+        <v>163</v>
+      </c>
+      <c r="C584" s="0">
+        <v>1</v>
+      </c>
+      <c r="D584" s="0" t="inlineStr">
+        <is>
+          <t>Họ tên/Mã</t>
+        </is>
+      </c>
+      <c r="E584" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="585">
+      <c r="A585" s="0">
+        <v>593</v>
+      </c>
+      <c r="B585" s="0">
+        <v>163</v>
+      </c>
+      <c r="C585" s="0">
+        <v>2</v>
+      </c>
+      <c r="D585" s="0" t="inlineStr">
+        <is>
+          <t>Ngày</t>
+        </is>
+      </c>
+      <c r="E585" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="586">
+      <c r="A586" s="0">
+        <v>594</v>
+      </c>
+      <c r="B586" s="0">
+        <v>163</v>
+      </c>
+      <c r="C586" s="0">
+        <v>4</v>
+      </c>
+      <c r="D586" s="0" t="inlineStr">
+        <is>
+          <t>Vui lòng khoanh tròn một từ biểu thị mức độ thường xuyên mà mỗi điều dưới đây xảy ra với con bạn.</t>
+        </is>
+      </c>
+      <c r="E586" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="587">
+      <c r="A587" s="0">
+        <v>595</v>
+      </c>
+      <c r="B587" s="0">
+        <v>163</v>
+      </c>
+      <c r="C587" s="0">
+        <v>5</v>
+      </c>
+      <c r="D587" s="0" t="inlineStr">
+        <is>
+          <t>Vui lòng chọn một từ biểu thị mức độ thường xuyên mà mỗi điều dưới đây xảy ra với con bạn.</t>
+        </is>
+      </c>
+      <c r="E587" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="588">
+      <c r="A588" s="0">
+        <v>596</v>
+      </c>
+      <c r="B588" s="0">
+        <v>163</v>
+      </c>
+      <c r="C588" s="0">
+        <v>6</v>
+      </c>
+      <c r="D588" s="0" t="inlineStr">
+        <is>
+          <t>Mối quan hệ với trẻ</t>
+        </is>
+      </c>
+      <c r="E588" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="589">
+      <c r="A589" s="0">
+        <v>597</v>
+      </c>
+      <c r="B589" s="0">
+        <v>163</v>
+      </c>
+      <c r="C589" s="0">
+        <v>3</v>
+      </c>
+      <c r="D589" s="0" t="inlineStr">
+        <is>
+          <t>Trang</t>
+        </is>
+      </c>
+      <c r="E589" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="590">
+      <c r="A590" s="0">
+        <v>598</v>
+      </c>
+      <c r="B590" s="0">
+        <v>164</v>
+      </c>
+      <c r="C590" s="0">
+        <v>1</v>
+      </c>
+      <c r="D590" s="0" t="inlineStr">
+        <is>
+          <t>Họ tên/Mã</t>
+        </is>
+      </c>
+      <c r="E590" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="591">
+      <c r="A591" s="0">
+        <v>599</v>
+      </c>
+      <c r="B591" s="0">
+        <v>164</v>
+      </c>
+      <c r="C591" s="0">
+        <v>2</v>
+      </c>
+      <c r="D591" s="0" t="inlineStr">
+        <is>
+          <t>Ngày</t>
+        </is>
+      </c>
+      <c r="E591" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="592">
+      <c r="A592" s="0">
+        <v>600</v>
+      </c>
+      <c r="B592" s="0">
+        <v>164</v>
+      </c>
+      <c r="C592" s="0">
+        <v>4</v>
+      </c>
+      <c r="D592" s="0" t="inlineStr">
+        <is>
+          <t>Vui lòng khoanh tròn một từ biểu thị mức độ thường xuyên mà mỗi điều dưới đây xảy ra với bạn. Không có câu trả lời đúng hay sai.</t>
+        </is>
+      </c>
+      <c r="E592" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="593">
+      <c r="A593" s="0">
+        <v>601</v>
+      </c>
+      <c r="B593" s="0">
+        <v>164</v>
+      </c>
+      <c r="C593" s="0">
+        <v>5</v>
+      </c>
+      <c r="D593" s="0" t="inlineStr">
+        <is>
+          <t>Vui lòng chọn một từ biểu thị mức độ thường xuyên mà mỗi điều dưới đây xảy ra với bạn. Không có câu trả lời đúng hay sai.</t>
+        </is>
+      </c>
+      <c r="E593" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="594">
+      <c r="A594" s="0">
+        <v>602</v>
+      </c>
+      <c r="B594" s="0">
+        <v>164</v>
+      </c>
+      <c r="C594" s="0">
+        <v>3</v>
+      </c>
+      <c r="D594" s="0" t="inlineStr">
+        <is>
+          <t>Trang</t>
+        </is>
+      </c>
+      <c r="E594" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="595">
+      <c r="A595" s="0">
+        <v>603</v>
+      </c>
+      <c r="B595" s="0">
+        <v>165</v>
+      </c>
+      <c r="C595" s="0">
+        <v>1</v>
+      </c>
+      <c r="D595" s="0" t="inlineStr">
+        <is>
+          <t>Họ tên/Mã</t>
+        </is>
+      </c>
+      <c r="E595" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="596">
+      <c r="A596" s="0">
+        <v>604</v>
+      </c>
+      <c r="B596" s="0">
+        <v>165</v>
+      </c>
+      <c r="C596" s="0">
+        <v>2</v>
+      </c>
+      <c r="D596" s="0" t="inlineStr">
+        <is>
+          <t>Ngày</t>
+        </is>
+      </c>
+      <c r="E596" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="597">
+      <c r="A597" s="0">
+        <v>605</v>
+      </c>
+      <c r="B597" s="0">
+        <v>165</v>
+      </c>
+      <c r="C597" s="0">
+        <v>4</v>
+      </c>
+      <c r="D597" s="0" t="inlineStr">
+        <is>
+          <t>Vui lòng khoanh tròn một từ biểu thị mức độ thường xuyên mà mỗi điều dưới đây xảy ra với con bạn.</t>
+        </is>
+      </c>
+      <c r="E597" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="598">
+      <c r="A598" s="0">
+        <v>606</v>
+      </c>
+      <c r="B598" s="0">
+        <v>165</v>
+      </c>
+      <c r="C598" s="0">
+        <v>5</v>
+      </c>
+      <c r="D598" s="0" t="inlineStr">
+        <is>
+          <t>Vui lòng chọn một từ biểu thị mức độ thường xuyên mà mỗi điều dưới đây xảy ra với con bạn.</t>
+        </is>
+      </c>
+      <c r="E598" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="599">
+      <c r="A599" s="0">
+        <v>607</v>
+      </c>
+      <c r="B599" s="0">
+        <v>165</v>
+      </c>
+      <c r="C599" s="0">
+        <v>6</v>
+      </c>
+      <c r="D599" s="0" t="inlineStr">
+        <is>
+          <t>Mối quan hệ với trẻ</t>
+        </is>
+      </c>
+      <c r="E599" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="600">
+      <c r="A600" s="0">
+        <v>608</v>
+      </c>
+      <c r="B600" s="0">
+        <v>165</v>
+      </c>
+      <c r="C600" s="0">
+        <v>3</v>
+      </c>
+      <c r="D600" s="0" t="inlineStr">
+        <is>
+          <t>Trang</t>
+        </is>
+      </c>
+      <c r="E600" s="0">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
